--- a/Municípios/Data/Comércio exterior anual.xlsx
+++ b/Municípios/Data/Comércio exterior anual.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,8 +413,14 @@
       <c r="C2">
         <v>7235</v>
       </c>
+      <c r="E2">
+        <v>-7235</v>
+      </c>
       <c r="F2">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -431,9 +437,15 @@
       <c r="C3">
         <v>5201</v>
       </c>
+      <c r="E3">
+        <v>-5201</v>
+      </c>
       <c r="F3">
         <v>22</v>
       </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -449,9 +461,15 @@
       <c r="D4">
         <v>1550</v>
       </c>
+      <c r="E4">
+        <v>1550</v>
+      </c>
       <c r="G4">
         <v>13</v>
       </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -465,22 +483,22 @@
         </is>
       </c>
       <c r="C5">
-        <v>16849616</v>
+        <v>21094511</v>
       </c>
       <c r="D5">
-        <v>1876333</v>
+        <v>2173469</v>
       </c>
       <c r="E5">
-        <v>-14973283</v>
+        <v>-18921042</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -495,13 +513,13 @@
         </is>
       </c>
       <c r="C6">
-        <v>22028690</v>
+        <v>23863817</v>
       </c>
       <c r="D6">
-        <v>1207773</v>
+        <v>1461120</v>
       </c>
       <c r="E6">
-        <v>-20820917</v>
+        <v>-22402697</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -510,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -525,22 +543,22 @@
         </is>
       </c>
       <c r="C7">
-        <v>17351507</v>
+        <v>20839863</v>
       </c>
       <c r="D7">
-        <v>2044856</v>
+        <v>2253621</v>
       </c>
       <c r="E7">
-        <v>-15306651</v>
+        <v>-18586242</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -555,13 +573,13 @@
         </is>
       </c>
       <c r="C8">
-        <v>5390215</v>
+        <v>6227844</v>
       </c>
       <c r="D8">
-        <v>1710773</v>
+        <v>2040162</v>
       </c>
       <c r="E8">
-        <v>-3679442</v>
+        <v>-4187682</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -570,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -585,22 +603,22 @@
         </is>
       </c>
       <c r="C9">
-        <v>11874223</v>
+        <v>12783258</v>
       </c>
       <c r="D9">
-        <v>1396360</v>
+        <v>1735493</v>
       </c>
       <c r="E9">
-        <v>-10477863</v>
+        <v>-11047765</v>
       </c>
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -615,13 +633,13 @@
         </is>
       </c>
       <c r="C10">
-        <v>8229539</v>
+        <v>8464593</v>
       </c>
       <c r="D10">
-        <v>779207</v>
+        <v>952924</v>
       </c>
       <c r="E10">
-        <v>-7450332</v>
+        <v>-7511669</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -630,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -645,11 +663,17 @@
         </is>
       </c>
       <c r="C11">
-        <v>518529889</v>
+        <v>518531767</v>
+      </c>
+      <c r="E11">
+        <v>-518531767</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>25</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -663,11 +687,17 @@
         </is>
       </c>
       <c r="C12">
-        <v>17190961</v>
+        <v>17204393</v>
+      </c>
+      <c r="E12">
+        <v>-17204393</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
+      <c r="H12">
+        <v>24</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -681,11 +711,17 @@
         </is>
       </c>
       <c r="C13">
-        <v>8010617</v>
+        <v>8031211</v>
+      </c>
+      <c r="E13">
+        <v>-8031211</v>
       </c>
       <c r="F13">
         <v>5</v>
       </c>
+      <c r="H13">
+        <v>22</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -699,11 +735,17 @@
         </is>
       </c>
       <c r="C14">
-        <v>179974787</v>
+        <v>180119050</v>
+      </c>
+      <c r="E14">
+        <v>-180119050</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -717,11 +759,23 @@
         </is>
       </c>
       <c r="C15">
-        <v>29994349</v>
+        <v>30021036</v>
+      </c>
+      <c r="D15">
+        <v>9053065</v>
+      </c>
+      <c r="E15">
+        <v>-20967971</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>24</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -737,9 +791,15 @@
       <c r="C16">
         <v>1161930</v>
       </c>
+      <c r="E16">
+        <v>-1161930</v>
+      </c>
       <c r="F16">
         <v>11</v>
       </c>
+      <c r="H16">
+        <v>17</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -753,28 +813,40 @@
         </is>
       </c>
       <c r="D17">
-        <v>797827</v>
+        <v>2155680</v>
+      </c>
+      <c r="E17">
+        <v>2155680</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carmópolis </t>
+          <t xml:space="preserve">Campo do Brito </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="C18">
-        <v>151266</v>
-      </c>
-      <c r="F18">
-        <v>16</v>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>1379</v>
+      </c>
+      <c r="E18">
+        <v>1379</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -785,14 +857,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C19">
-        <v>67652</v>
+        <v>151266</v>
+      </c>
+      <c r="E19">
+        <v>-151266</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -803,14 +881,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C20">
-        <v>40948</v>
+        <v>92697</v>
+      </c>
+      <c r="E20">
+        <v>-92697</v>
       </c>
       <c r="F20">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -821,20 +905,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C21">
-        <v>2707631</v>
+        <v>40948</v>
+      </c>
+      <c r="E21">
+        <v>-40948</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="H21">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cedro de São João </t>
+          <t xml:space="preserve">Carmópolis </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -843,52 +933,70 @@
         </is>
       </c>
       <c r="C22">
-        <v>9064</v>
+        <v>2707631</v>
+      </c>
+      <c r="E22">
+        <v>-2707631</v>
       </c>
       <c r="F22">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Divina Pastora </t>
+          <t xml:space="preserve">Carmópolis </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C23">
-        <v>1660</v>
+        <v>1494</v>
+      </c>
+      <c r="E23">
+        <v>-1494</v>
       </c>
       <c r="F23">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Divina Pastora </t>
+          <t xml:space="preserve">Cedro de São João </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C24">
-        <v>318</v>
+        <v>9064</v>
+      </c>
+      <c r="E24">
+        <v>-9064</v>
       </c>
       <c r="F24">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estância </t>
+          <t xml:space="preserve">Divina Pastora </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -897,52 +1005,40 @@
         </is>
       </c>
       <c r="C25">
-        <v>3412525</v>
-      </c>
-      <c r="D25">
-        <v>23819998</v>
+        <v>1660</v>
       </c>
       <c r="E25">
-        <v>20407473</v>
+        <v>-1660</v>
       </c>
       <c r="F25">
-        <v>7</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estância </t>
+          <t xml:space="preserve">Divina Pastora </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C26">
-        <v>12185455</v>
-      </c>
-      <c r="D26">
-        <v>23742505</v>
+        <v>318</v>
       </c>
       <c r="E26">
-        <v>11557050</v>
+        <v>-318</v>
       </c>
       <c r="F26">
+        <v>24</v>
+      </c>
+      <c r="H26">
         <v>5</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -953,20 +1049,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C27">
-        <v>13482002</v>
+        <v>4213928</v>
       </c>
       <c r="D27">
-        <v>20913255</v>
+        <v>25841095</v>
       </c>
       <c r="E27">
-        <v>7431253</v>
+        <v>21627167</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -983,20 +1079,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C28">
-        <v>8493042</v>
+        <v>13970985</v>
       </c>
       <c r="D28">
-        <v>49367953</v>
+        <v>27926390</v>
       </c>
       <c r="E28">
-        <v>40874911</v>
+        <v>13955405</v>
       </c>
       <c r="F28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1013,26 +1109,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C29">
-        <v>7654257</v>
+        <v>13950745</v>
       </c>
       <c r="D29">
-        <v>41772506</v>
+        <v>27067948</v>
       </c>
       <c r="E29">
-        <v>34118249</v>
+        <v>13117203</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1043,53 +1139,53 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C30">
-        <v>6507034</v>
+        <v>9305987</v>
       </c>
       <c r="D30">
-        <v>57119280</v>
+        <v>57927184</v>
       </c>
       <c r="E30">
-        <v>50612246</v>
+        <v>48621197</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frei Paulo </t>
+          <t xml:space="preserve">Estância </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C31">
-        <v>1152547</v>
+        <v>8684273</v>
       </c>
       <c r="D31">
-        <v>1951298</v>
+        <v>54431585</v>
       </c>
       <c r="E31">
-        <v>798751</v>
+        <v>45747312</v>
       </c>
       <c r="F31">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -1098,31 +1194,31 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frei Paulo </t>
+          <t xml:space="preserve">Estância </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C32">
-        <v>1068715</v>
+        <v>7269965</v>
       </c>
       <c r="D32">
-        <v>651806</v>
+        <v>73720034</v>
       </c>
       <c r="E32">
-        <v>-416909</v>
+        <v>66450069</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1133,26 +1229,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C33">
-        <v>1060457</v>
+        <v>1506030</v>
       </c>
       <c r="D33">
-        <v>953931</v>
+        <v>2413600</v>
       </c>
       <c r="E33">
-        <v>-106526</v>
+        <v>907570</v>
       </c>
       <c r="F33">
         <v>11</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1163,26 +1259,26 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C34">
-        <v>1152419</v>
+        <v>1252203</v>
       </c>
       <c r="D34">
-        <v>2175585</v>
+        <v>651806</v>
       </c>
       <c r="E34">
-        <v>1023166</v>
+        <v>-600397</v>
       </c>
       <c r="F34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -1193,26 +1289,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C35">
-        <v>606406</v>
+        <v>1108229</v>
       </c>
       <c r="D35">
-        <v>607037</v>
+        <v>1120811</v>
       </c>
       <c r="E35">
-        <v>631</v>
+        <v>12582</v>
       </c>
       <c r="F35">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G35">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1223,74 +1319,86 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C36">
-        <v>529275</v>
+        <v>1221388</v>
       </c>
       <c r="D36">
-        <v>118529</v>
+        <v>2422887</v>
       </c>
       <c r="E36">
-        <v>-410746</v>
+        <v>1201499</v>
       </c>
       <c r="F36">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G36">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Itabaiana </t>
+          <t xml:space="preserve">Frei Paulo </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C37">
-        <v>316343</v>
+        <v>679388</v>
+      </c>
+      <c r="D37">
+        <v>1640274</v>
+      </c>
+      <c r="E37">
+        <v>960886</v>
       </c>
       <c r="F37">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Itabaiana </t>
+          <t xml:space="preserve">Frei Paulo </t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C38">
-        <v>330236</v>
+        <v>529275</v>
       </c>
       <c r="D38">
-        <v>82041</v>
+        <v>118529</v>
       </c>
       <c r="E38">
-        <v>-248195</v>
+        <v>-410746</v>
       </c>
       <c r="F38">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G38">
         <v>10</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
@@ -1301,14 +1409,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C39">
-        <v>861818</v>
+        <v>84111</v>
+      </c>
+      <c r="E39">
+        <v>-84111</v>
       </c>
       <c r="F39">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -1319,116 +1433,146 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C40">
-        <v>779630</v>
+        <v>445145</v>
+      </c>
+      <c r="E40">
+        <v>-445145</v>
       </c>
       <c r="F40">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H40">
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Itabaianinha </t>
+          <t xml:space="preserve">Itabaiana </t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C41">
-        <v>4431</v>
+        <v>410416</v>
+      </c>
+      <c r="D41">
+        <v>82041</v>
+      </c>
+      <c r="E41">
+        <v>-328375</v>
       </c>
       <c r="F41">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Itabaianinha </t>
+          <t xml:space="preserve">Itabaiana </t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C42">
-        <v>4687</v>
+        <v>1004625</v>
+      </c>
+      <c r="E42">
+        <v>-1004625</v>
       </c>
       <c r="F42">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="H42">
+        <v>14</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Itaporanga D'Ajuda</t>
+          <t xml:space="preserve">Itabaiana </t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C43">
-        <v>689538</v>
+        <v>849945</v>
+      </c>
+      <c r="E43">
+        <v>-849945</v>
       </c>
       <c r="F43">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H43">
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Itaporanga D'Ajuda</t>
+          <t xml:space="preserve">Itabaianinha </t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C44">
-        <v>710584</v>
+        <v>4431</v>
+      </c>
+      <c r="E44">
+        <v>-4431</v>
       </c>
       <c r="F44">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Itaporanga D'Ajuda</t>
+          <t xml:space="preserve">Itabaianinha </t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C45">
-        <v>750990</v>
-      </c>
-      <c r="D45">
-        <v>11</v>
+        <v>4687</v>
       </c>
       <c r="E45">
-        <v>-750979</v>
+        <v>-4687</v>
       </c>
       <c r="F45">
-        <v>13</v>
-      </c>
-      <c r="G45">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H45">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -1439,26 +1583,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C46">
-        <v>1349610</v>
-      </c>
-      <c r="D46">
-        <v>2013</v>
+        <v>747062</v>
       </c>
       <c r="E46">
-        <v>-1347597</v>
+        <v>-747062</v>
       </c>
       <c r="F46">
-        <v>10</v>
-      </c>
-      <c r="G46">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H46">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
@@ -1469,14 +1607,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C47">
-        <v>1449163</v>
+        <v>729381</v>
+      </c>
+      <c r="E47">
+        <v>-729381</v>
       </c>
       <c r="F47">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="H47">
+        <v>17</v>
       </c>
     </row>
     <row r="48">
@@ -1487,80 +1631,104 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C48">
-        <v>203770</v>
+        <v>830624</v>
+      </c>
+      <c r="D48">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>-830613</v>
       </c>
       <c r="F48">
+        <v>13</v>
+      </c>
+      <c r="G48">
+        <v>13</v>
+      </c>
+      <c r="H48">
         <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Japaratuba </t>
+          <t>Itaporanga D'Ajuda</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C49">
-        <v>18136985</v>
+        <v>1481718</v>
+      </c>
+      <c r="D49">
+        <v>2013</v>
+      </c>
+      <c r="E49">
+        <v>-1479705</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="G49">
+        <v>14</v>
+      </c>
+      <c r="H49">
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Japaratuba </t>
+          <t>Itaporanga D'Ajuda</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C50">
-        <v>93</v>
+        <v>1487838</v>
+      </c>
+      <c r="E50">
+        <v>-1487838</v>
       </c>
       <c r="F50">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="H50">
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Japaratuba </t>
+          <t>Itaporanga D'Ajuda</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C51">
-        <v>1846357</v>
-      </c>
-      <c r="D51">
-        <v>64924182</v>
+        <v>223465</v>
       </c>
       <c r="E51">
-        <v>63077825</v>
+        <v>-223465</v>
       </c>
       <c r="F51">
-        <v>11</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52">
@@ -1571,152 +1739,152 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C52">
-        <v>10951170</v>
-      </c>
-      <c r="D52">
-        <v>168846877</v>
+        <v>18136985</v>
       </c>
       <c r="E52">
-        <v>157895707</v>
+        <v>-18136985</v>
       </c>
       <c r="F52">
         <v>5</v>
       </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
       <c r="H52">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Japoatã </t>
+          <t xml:space="preserve">Japaratuba </t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>1134311</v>
-      </c>
-      <c r="G53">
-        <v>6</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>93</v>
+      </c>
+      <c r="E53">
+        <v>-93</v>
+      </c>
+      <c r="F53">
+        <v>23</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Japoatã </t>
+          <t xml:space="preserve">Japaratuba </t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
-        </is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>1846357</v>
       </c>
       <c r="D54">
-        <v>1470727</v>
+        <v>64924182</v>
+      </c>
+      <c r="E54">
+        <v>63077825</v>
+      </c>
+      <c r="F54">
+        <v>12</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lagarto </t>
+          <t xml:space="preserve">Japaratuba </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C55">
-        <v>3351517</v>
+        <v>19315292</v>
       </c>
       <c r="D55">
-        <v>177865</v>
+        <v>182941564</v>
       </c>
       <c r="E55">
-        <v>-3173652</v>
+        <v>163626272</v>
       </c>
       <c r="F55">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G55">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lagarto </t>
+          <t xml:space="preserve">Japoatã </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="C56">
-        <v>2926400</v>
+          <t>31/12/2023</t>
+        </is>
       </c>
       <c r="D56">
-        <v>8460</v>
+        <v>1537867</v>
       </c>
       <c r="E56">
-        <v>-2917940</v>
-      </c>
-      <c r="F56">
-        <v>8</v>
+        <v>1537867</v>
       </c>
       <c r="G56">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H56">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lagarto </t>
+          <t xml:space="preserve">Japoatã </t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="C57">
-        <v>1981314</v>
+          <t>31/12/2024</t>
+        </is>
       </c>
       <c r="D57">
-        <v>56867</v>
+        <v>1573994</v>
       </c>
       <c r="E57">
-        <v>-1924447</v>
-      </c>
-      <c r="F57">
-        <v>8</v>
+        <v>1573994</v>
       </c>
       <c r="G57">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H57">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -1727,26 +1895,26 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C58">
-        <v>8536843</v>
+        <v>3627143</v>
       </c>
       <c r="D58">
-        <v>81039</v>
+        <v>177865</v>
       </c>
       <c r="E58">
-        <v>-8455804</v>
+        <v>-3449278</v>
       </c>
       <c r="F58">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G58">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H58">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
@@ -1757,26 +1925,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C59">
-        <v>3085042</v>
+        <v>3073465</v>
       </c>
       <c r="D59">
-        <v>56129</v>
+        <v>8460</v>
       </c>
       <c r="E59">
-        <v>-3028913</v>
+        <v>-3065005</v>
       </c>
       <c r="F59">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G59">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H59">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
@@ -1787,116 +1955,116 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C60">
-        <v>3621189</v>
+        <v>2489829</v>
       </c>
       <c r="D60">
-        <v>15484</v>
+        <v>61772</v>
       </c>
       <c r="E60">
-        <v>-3605705</v>
+        <v>-2428057</v>
       </c>
       <c r="F60">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G60">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H60">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laranjeiras </t>
+          <t xml:space="preserve">Lagarto </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C61">
-        <v>10500479</v>
+        <v>9064626</v>
       </c>
       <c r="D61">
-        <v>3528770</v>
+        <v>81039</v>
       </c>
       <c r="E61">
-        <v>-6971709</v>
+        <v>-8983587</v>
       </c>
       <c r="F61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H61">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laranjeiras </t>
+          <t xml:space="preserve">Lagarto </t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C62">
-        <v>3803549</v>
+        <v>3632257</v>
       </c>
       <c r="D62">
-        <v>518245</v>
+        <v>56129</v>
       </c>
       <c r="E62">
-        <v>-3285304</v>
+        <v>-3576128</v>
       </c>
       <c r="F62">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G62">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H62">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laranjeiras </t>
+          <t xml:space="preserve">Lagarto </t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C63">
-        <v>4715822</v>
+        <v>5827817</v>
       </c>
       <c r="D63">
-        <v>4801054</v>
+        <v>15484</v>
       </c>
       <c r="E63">
-        <v>85232</v>
+        <v>-5812333</v>
       </c>
       <c r="F63">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
@@ -1907,26 +2075,26 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C64">
-        <v>9069484</v>
+        <v>11074835</v>
       </c>
       <c r="D64">
-        <v>10856708</v>
+        <v>3528770</v>
       </c>
       <c r="E64">
-        <v>1787224</v>
+        <v>-7546065</v>
       </c>
       <c r="F64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G64">
         <v>2</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
@@ -1937,26 +2105,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C65">
-        <v>28322550</v>
+        <v>3803549</v>
       </c>
       <c r="D65">
-        <v>3726608</v>
+        <v>518245</v>
       </c>
       <c r="E65">
-        <v>-24595942</v>
+        <v>-3285304</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H65">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
@@ -1967,80 +2135,116 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C66">
-        <v>18390365</v>
+        <v>4774570</v>
       </c>
       <c r="D66">
-        <v>2430704</v>
+        <v>4801054</v>
       </c>
       <c r="E66">
-        <v>-15959661</v>
+        <v>26484</v>
       </c>
       <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66">
         <v>3</v>
-      </c>
-      <c r="G66">
-        <v>3</v>
-      </c>
-      <c r="H66">
-        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maruim </t>
+          <t xml:space="preserve">Laranjeiras </t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C67">
-        <v>20620337</v>
+        <v>13918810</v>
+      </c>
+      <c r="D67">
+        <v>10856708</v>
+      </c>
+      <c r="E67">
+        <v>-3062102</v>
       </c>
       <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67">
         <v>2</v>
+      </c>
+      <c r="H67">
+        <v>18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maruim </t>
+          <t xml:space="preserve">Laranjeiras </t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C68">
-        <v>12377764</v>
+        <v>28378838</v>
+      </c>
+      <c r="D68">
+        <v>3726608</v>
+      </c>
+      <c r="E68">
+        <v>-24652230</v>
       </c>
       <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
         <v>4</v>
+      </c>
+      <c r="H68">
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maruim </t>
+          <t xml:space="preserve">Laranjeiras </t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C69">
-        <v>22659117</v>
+        <v>23797309</v>
+      </c>
+      <c r="D69">
+        <v>2430704</v>
+      </c>
+      <c r="E69">
+        <v>-21366605</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="H69">
+        <v>23</v>
       </c>
     </row>
     <row r="70">
@@ -2051,15 +2255,21 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C70">
-        <v>31134275</v>
+        <v>30746605</v>
+      </c>
+      <c r="E70">
+        <v>-30746605</v>
       </c>
       <c r="F70">
         <v>2</v>
       </c>
+      <c r="H70">
+        <v>24</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2069,15 +2279,21 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C71">
-        <v>17645282</v>
+        <v>15347697</v>
+      </c>
+      <c r="E71">
+        <v>-15347697</v>
       </c>
       <c r="F71">
         <v>4</v>
       </c>
+      <c r="H71">
+        <v>22</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2087,68 +2303,92 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C72">
-        <v>31874400</v>
+        <v>26543290</v>
+      </c>
+      <c r="E72">
+        <v>-26543290</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
+      <c r="H72">
+        <v>25</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Moita Bonita </t>
+          <t xml:space="preserve">Maruim </t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C73">
-        <v>27271</v>
+        <v>31720425</v>
+      </c>
+      <c r="E73">
+        <v>-31720425</v>
       </c>
       <c r="F73">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <v>22</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Moita Bonita </t>
+          <t xml:space="preserve">Maruim </t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C74">
-        <v>47441</v>
+        <v>18648474</v>
+      </c>
+      <c r="E74">
+        <v>-18648474</v>
       </c>
       <c r="F74">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="H74">
+        <v>23</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Moita Bonita </t>
+          <t xml:space="preserve">Maruim </t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C75">
-        <v>22503</v>
+        <v>38238468</v>
+      </c>
+      <c r="E75">
+        <v>-38238468</v>
       </c>
       <c r="F75">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>25</v>
       </c>
     </row>
     <row r="76">
@@ -2159,98 +2399,116 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C76">
-        <v>45697</v>
+        <v>47860</v>
+      </c>
+      <c r="E76">
+        <v>-47860</v>
       </c>
       <c r="F76">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H76">
+        <v>10</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monte Alegre de Sergipe </t>
+          <t xml:space="preserve">Moita Bonita </t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C77">
-        <v>2561</v>
+        <v>47441</v>
+      </c>
+      <c r="E77">
+        <v>-47441</v>
       </c>
       <c r="F77">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="H77">
+        <v>9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neópolis </t>
+          <t xml:space="preserve">Moita Bonita </t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C78">
-        <v>39962</v>
+        <v>22503</v>
+      </c>
+      <c r="E78">
+        <v>-22503</v>
       </c>
       <c r="F78">
         <v>20</v>
       </c>
+      <c r="H78">
+        <v>10</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neópolis </t>
+          <t xml:space="preserve">Moita Bonita </t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C79">
-        <v>331725</v>
-      </c>
-      <c r="D79">
-        <v>200001</v>
+        <v>45697</v>
       </c>
       <c r="E79">
-        <v>-131724</v>
+        <v>-45697</v>
       </c>
       <c r="F79">
-        <v>15</v>
-      </c>
-      <c r="G79">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neópolis </t>
+          <t xml:space="preserve">Monte Alegre de Sergipe </t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C80">
-        <v>1143352</v>
+        <v>2561</v>
+      </c>
+      <c r="E80">
+        <v>-2561</v>
       </c>
       <c r="F80">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="H80">
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -2261,14 +2519,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C81">
-        <v>3366</v>
+        <v>714422</v>
+      </c>
+      <c r="E81">
+        <v>-714422</v>
       </c>
       <c r="F81">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="H81">
+        <v>15</v>
       </c>
     </row>
     <row r="82">
@@ -2279,14 +2543,26 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C82">
-        <v>54480</v>
+        <v>331725</v>
+      </c>
+      <c r="D82">
+        <v>200001</v>
+      </c>
+      <c r="E82">
+        <v>-131724</v>
       </c>
       <c r="F82">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="G82">
+        <v>9</v>
+      </c>
+      <c r="H82">
+        <v>11</v>
       </c>
     </row>
     <row r="83">
@@ -2297,68 +2573,92 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C83">
-        <v>25068</v>
+        <v>1238947</v>
+      </c>
+      <c r="E83">
+        <v>-1238947</v>
       </c>
       <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="H83">
         <v>19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nossa Senhora Aparecida </t>
+          <t xml:space="preserve">Neópolis </t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D84">
-        <v>1266245</v>
-      </c>
-      <c r="G84">
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>3366</v>
+      </c>
+      <c r="E84">
+        <v>-3366</v>
+      </c>
+      <c r="F84">
+        <v>23</v>
+      </c>
+      <c r="H84">
         <v>5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nossa Senhora Aparecida </t>
+          <t xml:space="preserve">Neópolis </t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="D85">
-        <v>485323</v>
-      </c>
-      <c r="G85">
-        <v>5</v>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>106338</v>
+      </c>
+      <c r="E85">
+        <v>-106338</v>
+      </c>
+      <c r="F85">
+        <v>19</v>
+      </c>
+      <c r="H85">
+        <v>11</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nossa Senhora Aparecida </t>
+          <t xml:space="preserve">Neópolis </t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="D86">
-        <v>179410</v>
-      </c>
-      <c r="G86">
-        <v>8</v>
+          <t>31/12/2024</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>29585</v>
+      </c>
+      <c r="E86">
+        <v>-29585</v>
+      </c>
+      <c r="F86">
+        <v>19</v>
+      </c>
+      <c r="H86">
+        <v>9</v>
       </c>
     </row>
     <row r="87">
@@ -2369,104 +2669,92 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D87">
-        <v>81945</v>
+        <v>1406617</v>
+      </c>
+      <c r="E87">
+        <v>1406617</v>
       </c>
       <c r="G87">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nossa Senhora do Socorro </t>
+          <t xml:space="preserve">Nossa Senhora Aparecida </t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="C88">
-        <v>18565200</v>
+          <t>31/12/2020</t>
+        </is>
       </c>
       <c r="D88">
-        <v>465680</v>
+        <v>529482</v>
       </c>
       <c r="E88">
-        <v>-18099520</v>
-      </c>
-      <c r="F88">
-        <v>3</v>
+        <v>529482</v>
       </c>
       <c r="G88">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H88">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nossa Senhora do Socorro </t>
+          <t xml:space="preserve">Nossa Senhora Aparecida </t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="C89">
-        <v>15787510</v>
+          <t>31/12/2021</t>
+        </is>
       </c>
       <c r="D89">
-        <v>275777</v>
+        <v>205612</v>
       </c>
       <c r="E89">
-        <v>-15511733</v>
-      </c>
-      <c r="F89">
-        <v>3</v>
+        <v>205612</v>
       </c>
       <c r="G89">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H89">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nossa Senhora do Socorro </t>
+          <t xml:space="preserve">Nossa Senhora Aparecida </t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="C90">
-        <v>17725933</v>
+          <t>31/12/2022</t>
+        </is>
       </c>
       <c r="D90">
-        <v>1474739</v>
+        <v>81945</v>
       </c>
       <c r="E90">
-        <v>-16251194</v>
-      </c>
-      <c r="F90">
-        <v>2</v>
+        <v>81945</v>
       </c>
       <c r="G90">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H90">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -2477,26 +2765,26 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C91">
-        <v>10985852</v>
+        <v>22317375</v>
       </c>
       <c r="D91">
-        <v>2840930</v>
+        <v>576256</v>
       </c>
       <c r="E91">
-        <v>-8144922</v>
+        <v>-21741119</v>
       </c>
       <c r="F91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G91">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H91">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92">
@@ -2507,26 +2795,26 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C92">
-        <v>12044401</v>
+        <v>16685664</v>
       </c>
       <c r="D92">
-        <v>1145790</v>
+        <v>287224</v>
       </c>
       <c r="E92">
-        <v>-10898611</v>
+        <v>-16398440</v>
       </c>
       <c r="F92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G92">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H92">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93">
@@ -2537,152 +2825,212 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C93">
-        <v>12001599</v>
+        <v>19693799</v>
       </c>
       <c r="D93">
-        <v>1332339</v>
+        <v>1773840</v>
       </c>
       <c r="E93">
-        <v>-10669260</v>
+        <v>-17919959</v>
       </c>
       <c r="F93">
+        <v>3</v>
+      </c>
+      <c r="G93">
         <v>4</v>
       </c>
-      <c r="G93">
-        <v>5</v>
-      </c>
       <c r="H93">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pacatuba </t>
+          <t xml:space="preserve">Nossa Senhora do Socorro </t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C94">
-        <v>59514</v>
+        <v>15410880</v>
+      </c>
+      <c r="D94">
+        <v>2964339</v>
+      </c>
+      <c r="E94">
+        <v>-12446541</v>
       </c>
       <c r="F94">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <v>21</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pacatuba </t>
+          <t xml:space="preserve">Nossa Senhora do Socorro </t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C95">
-        <v>136213</v>
+        <v>13707611</v>
+      </c>
+      <c r="D95">
+        <v>1501306</v>
+      </c>
+      <c r="E95">
+        <v>-12206305</v>
       </c>
       <c r="F95">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="G95">
+        <v>8</v>
+      </c>
+      <c r="H95">
+        <v>22</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pedrinhas </t>
+          <t xml:space="preserve">Nossa Senhora do Socorro </t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C96">
-        <v>9373</v>
+        <v>13820381</v>
+      </c>
+      <c r="D96">
+        <v>1433519</v>
+      </c>
+      <c r="E96">
+        <v>-12386862</v>
       </c>
       <c r="F96">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="G96">
+        <v>6</v>
+      </c>
+      <c r="H96">
+        <v>22</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pedrinhas </t>
+          <t xml:space="preserve">Pacatuba </t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D97">
-        <v>6650</v>
-      </c>
-      <c r="G97">
-        <v>11</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>59514</v>
+      </c>
+      <c r="E97">
+        <v>-59514</v>
+      </c>
+      <c r="F97">
+        <v>18</v>
+      </c>
+      <c r="H97">
+        <v>10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pirambu </t>
+          <t xml:space="preserve">Pacatuba </t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C98">
-        <v>41833</v>
+        <v>136213</v>
+      </c>
+      <c r="E98">
+        <v>-136213</v>
       </c>
       <c r="F98">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="H98">
+        <v>12</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pirambu </t>
+          <t xml:space="preserve">Pedrinhas </t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C99">
-        <v>623320</v>
+        <v>9373</v>
+      </c>
+      <c r="E99">
+        <v>-9373</v>
       </c>
       <c r="F99">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="H99">
+        <v>7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pirambu </t>
+          <t xml:space="preserve">Pedrinhas </t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="C100">
-        <v>109865</v>
-      </c>
-      <c r="F100">
-        <v>16</v>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="D100">
+        <v>6650</v>
+      </c>
+      <c r="E100">
+        <v>6650</v>
+      </c>
+      <c r="G100">
+        <v>12</v>
+      </c>
+      <c r="H100">
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -2693,14 +3041,20 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C101">
-        <v>120686</v>
+        <v>41833</v>
+      </c>
+      <c r="E101">
+        <v>-41833</v>
       </c>
       <c r="F101">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="H101">
+        <v>7</v>
       </c>
     </row>
     <row r="102">
@@ -2711,56 +3065,74 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C102">
-        <v>4944</v>
+        <v>643423</v>
+      </c>
+      <c r="E102">
+        <v>-643423</v>
       </c>
       <c r="F102">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="H102">
+        <v>16</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poço Verde </t>
+          <t xml:space="preserve">Pirambu </t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C103">
-        <v>435686</v>
+        <v>160310</v>
+      </c>
+      <c r="E103">
+        <v>-160310</v>
       </c>
       <c r="F103">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="H103">
+        <v>14</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poço Verde </t>
+          <t xml:space="preserve">Pirambu </t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C104">
-        <v>93412</v>
+        <v>120686</v>
+      </c>
+      <c r="E104">
+        <v>-120686</v>
       </c>
       <c r="F104">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="H104">
+        <v>11</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poço Verde </t>
+          <t xml:space="preserve">Pirambu </t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2769,10 +3141,16 @@
         </is>
       </c>
       <c r="C105">
-        <v>90937</v>
+        <v>4944</v>
+      </c>
+      <c r="E105">
+        <v>-4944</v>
       </c>
       <c r="F105">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="H105">
+        <v>7</v>
       </c>
     </row>
     <row r="106">
@@ -2783,80 +3161,98 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C106">
-        <v>606209</v>
-      </c>
-      <c r="D106">
-        <v>172141</v>
+        <v>435686</v>
       </c>
       <c r="E106">
-        <v>-434068</v>
+        <v>-435686</v>
       </c>
       <c r="F106">
-        <v>14</v>
-      </c>
-      <c r="G106">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Propriá </t>
+          <t xml:space="preserve">Poço Verde </t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C107">
-        <v>45624</v>
+        <v>93412</v>
+      </c>
+      <c r="E107">
+        <v>-93412</v>
       </c>
       <c r="F107">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="H107">
+        <v>10</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Propriá </t>
+          <t xml:space="preserve">Poço Verde </t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C108">
-        <v>23171</v>
+        <v>182887</v>
+      </c>
+      <c r="E108">
+        <v>-182887</v>
       </c>
       <c r="F108">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H108">
+        <v>12</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Propriá </t>
+          <t xml:space="preserve">Poço Verde </t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C109">
-        <v>58442</v>
+        <v>606209</v>
+      </c>
+      <c r="D109">
+        <v>197680</v>
+      </c>
+      <c r="E109">
+        <v>-408529</v>
       </c>
       <c r="F109">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="G109">
+        <v>9</v>
+      </c>
+      <c r="H109">
+        <v>13</v>
       </c>
     </row>
     <row r="110">
@@ -2867,104 +3263,92 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C110">
-        <v>29844</v>
+        <v>45624</v>
+      </c>
+      <c r="E110">
+        <v>-45624</v>
       </c>
       <c r="F110">
         <v>20</v>
       </c>
+      <c r="H110">
+        <v>8</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Riachuelo </t>
+          <t xml:space="preserve">Propriá </t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C111">
-        <v>32334</v>
-      </c>
-      <c r="D111">
-        <v>5152</v>
+        <v>23171</v>
       </c>
       <c r="E111">
-        <v>-27182</v>
+        <v>-23171</v>
       </c>
       <c r="F111">
-        <v>21</v>
-      </c>
-      <c r="G111">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H111">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Riachuelo </t>
+          <t xml:space="preserve">Propriá </t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C112">
-        <v>407596</v>
-      </c>
-      <c r="D112">
-        <v>98722</v>
+        <v>58442</v>
       </c>
       <c r="E112">
-        <v>-308874</v>
+        <v>-58442</v>
       </c>
       <c r="F112">
+        <v>18</v>
+      </c>
+      <c r="H112">
         <v>13</v>
-      </c>
-      <c r="G112">
-        <v>12</v>
-      </c>
-      <c r="H112">
-        <v>4</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Riachuelo </t>
+          <t xml:space="preserve">Propriá </t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C113">
-        <v>543113</v>
-      </c>
-      <c r="D113">
-        <v>391177</v>
+        <v>29844</v>
       </c>
       <c r="E113">
-        <v>-151936</v>
+        <v>-29844</v>
       </c>
       <c r="F113">
-        <v>14</v>
-      </c>
-      <c r="G113">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H113">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114">
@@ -2975,26 +3359,26 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C114">
-        <v>274407</v>
+        <v>56498</v>
       </c>
       <c r="D114">
-        <v>233889</v>
+        <v>5152</v>
       </c>
       <c r="E114">
-        <v>-40518</v>
+        <v>-51346</v>
       </c>
       <c r="F114">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G114">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H114">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
@@ -3005,14 +3389,26 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C115">
-        <v>14661</v>
+        <v>427030</v>
+      </c>
+      <c r="D115">
+        <v>98722</v>
+      </c>
+      <c r="E115">
+        <v>-328308</v>
       </c>
       <c r="F115">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="G115">
+        <v>12</v>
+      </c>
+      <c r="H115">
+        <v>13</v>
       </c>
     </row>
     <row r="116">
@@ -3023,68 +3419,104 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C116">
-        <v>31106</v>
+        <v>543113</v>
+      </c>
+      <c r="D116">
+        <v>505083</v>
+      </c>
+      <c r="E116">
+        <v>-38030</v>
       </c>
       <c r="F116">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="G116">
+        <v>7</v>
+      </c>
+      <c r="H116">
+        <v>8</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ribeirópolis </t>
+          <t xml:space="preserve">Riachuelo </t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C117">
-        <v>23132</v>
+        <v>377962</v>
+      </c>
+      <c r="D117">
+        <v>233889</v>
+      </c>
+      <c r="E117">
+        <v>-144073</v>
       </c>
       <c r="F117">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="G117">
+        <v>7</v>
+      </c>
+      <c r="H117">
+        <v>13</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ribeirópolis </t>
+          <t xml:space="preserve">Riachuelo </t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="D118">
-        <v>119809</v>
-      </c>
-      <c r="G118">
-        <v>11</v>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>18669</v>
+      </c>
+      <c r="E118">
+        <v>-18669</v>
+      </c>
+      <c r="F118">
+        <v>21</v>
+      </c>
+      <c r="H118">
+        <v>9</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ribeirópolis </t>
+          <t xml:space="preserve">Riachuelo </t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C119">
-        <v>57260</v>
+        <v>31106</v>
+      </c>
+      <c r="E119">
+        <v>-31106</v>
       </c>
       <c r="F119">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H119">
+        <v>10</v>
       </c>
     </row>
     <row r="120">
@@ -3095,26 +3527,20 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C120">
-        <v>73827</v>
-      </c>
-      <c r="D120">
-        <v>142713</v>
+        <v>23132</v>
       </c>
       <c r="E120">
-        <v>68886</v>
+        <v>-23132</v>
       </c>
       <c r="F120">
-        <v>17</v>
-      </c>
-      <c r="G120">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H120">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121">
@@ -3125,14 +3551,26 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C121">
-        <v>1653214</v>
+        <v>3836</v>
+      </c>
+      <c r="D121">
+        <v>119809</v>
+      </c>
+      <c r="E121">
+        <v>115973</v>
       </c>
       <c r="F121">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="G121">
+        <v>11</v>
+      </c>
+      <c r="H121">
+        <v>4</v>
       </c>
     </row>
     <row r="122">
@@ -3143,104 +3581,98 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C122">
-        <v>22094</v>
+        <v>57260</v>
+      </c>
+      <c r="E122">
+        <v>-57260</v>
       </c>
       <c r="F122">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H122">
+        <v>12</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rosário do Catete </t>
+          <t xml:space="preserve">Ribeirópolis </t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C123">
-        <v>2186019</v>
+        <v>81248</v>
       </c>
       <c r="D123">
-        <v>2196</v>
+        <v>142713</v>
       </c>
       <c r="E123">
-        <v>-2183823</v>
+        <v>61465</v>
       </c>
       <c r="F123">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G123">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H123">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rosário do Catete </t>
+          <t xml:space="preserve">Ribeirópolis </t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C124">
-        <v>6660758</v>
-      </c>
-      <c r="D124">
-        <v>5485</v>
+        <v>1750128</v>
       </c>
       <c r="E124">
-        <v>-6655273</v>
+        <v>-1750128</v>
       </c>
       <c r="F124">
-        <v>6</v>
-      </c>
-      <c r="G124">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H124">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rosário do Catete </t>
+          <t xml:space="preserve">Ribeirópolis </t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C125">
-        <v>4720307</v>
-      </c>
-      <c r="D125">
-        <v>355</v>
+        <v>22094</v>
       </c>
       <c r="E125">
-        <v>-4719952</v>
+        <v>-22094</v>
       </c>
       <c r="F125">
-        <v>6</v>
-      </c>
-      <c r="G125">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H125">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126">
@@ -3251,14 +3683,26 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C126">
-        <v>24381790</v>
+        <v>2673601</v>
+      </c>
+      <c r="D126">
+        <v>2196</v>
+      </c>
+      <c r="E126">
+        <v>-2671405</v>
       </c>
       <c r="F126">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="G126">
+        <v>12</v>
+      </c>
+      <c r="H126">
+        <v>18</v>
       </c>
     </row>
     <row r="127">
@@ -3269,26 +3713,26 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C127">
-        <v>19924403</v>
+        <v>7132904</v>
       </c>
       <c r="D127">
-        <v>17965</v>
+        <v>5485</v>
       </c>
       <c r="E127">
-        <v>-19906438</v>
+        <v>-7127419</v>
       </c>
       <c r="F127">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G127">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H127">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128">
@@ -3299,116 +3743,116 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C128">
-        <v>30432335</v>
+        <v>4761721</v>
       </c>
       <c r="D128">
-        <v>3924</v>
+        <v>1312</v>
       </c>
       <c r="E128">
-        <v>-30428411</v>
+        <v>-4760409</v>
       </c>
       <c r="F128">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G128">
         <v>12</v>
       </c>
       <c r="H128">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Simão Dias </t>
+          <t xml:space="preserve">Rosário do Catete </t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C129">
-        <v>1963984</v>
+        <v>33162853</v>
       </c>
       <c r="D129">
-        <v>809169</v>
+        <v>5430</v>
       </c>
       <c r="E129">
-        <v>-1154815</v>
+        <v>-33157423</v>
       </c>
       <c r="F129">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G129">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H129">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Simão Dias </t>
+          <t xml:space="preserve">Rosário do Catete </t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C130">
-        <v>2151994</v>
+        <v>21750983</v>
       </c>
       <c r="D130">
-        <v>447391</v>
+        <v>23787</v>
       </c>
       <c r="E130">
-        <v>-1704603</v>
+        <v>-21727196</v>
       </c>
       <c r="F130">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G130">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H130">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Simão Dias </t>
+          <t xml:space="preserve">Rosário do Catete </t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C131">
-        <v>1257626</v>
+        <v>31835643</v>
       </c>
       <c r="D131">
-        <v>873438</v>
+        <v>3924</v>
       </c>
       <c r="E131">
-        <v>-384188</v>
+        <v>-31831719</v>
       </c>
       <c r="F131">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G131">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H131">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132">
@@ -3419,26 +3863,26 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C132">
-        <v>2108098</v>
+        <v>2099708</v>
       </c>
       <c r="D132">
-        <v>950202</v>
+        <v>865251</v>
       </c>
       <c r="E132">
-        <v>-1157896</v>
+        <v>-1234457</v>
       </c>
       <c r="F132">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G132">
         <v>6</v>
       </c>
       <c r="H132">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133">
@@ -3449,26 +3893,26 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C133">
-        <v>3647005</v>
+        <v>2157167</v>
       </c>
       <c r="D133">
-        <v>986253</v>
+        <v>457958</v>
       </c>
       <c r="E133">
-        <v>-2660752</v>
+        <v>-1699209</v>
       </c>
       <c r="F133">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G133">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H133">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134">
@@ -3479,92 +3923,116 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C134">
-        <v>3542392</v>
+        <v>1774529</v>
       </c>
       <c r="D134">
-        <v>204695</v>
+        <v>889966</v>
       </c>
       <c r="E134">
-        <v>-3337697</v>
+        <v>-884563</v>
       </c>
       <c r="F134">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G134">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H134">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">São Cristóvão </t>
+          <t xml:space="preserve">Simão Dias </t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C135">
-        <v>590307</v>
+        <v>2797532</v>
+      </c>
+      <c r="D135">
+        <v>966143</v>
+      </c>
+      <c r="E135">
+        <v>-1831389</v>
       </c>
       <c r="F135">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="G135">
+        <v>6</v>
+      </c>
+      <c r="H135">
+        <v>17</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">São Cristóvão </t>
+          <t xml:space="preserve">Simão Dias </t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C136">
-        <v>140845</v>
+        <v>4373079</v>
+      </c>
+      <c r="D136">
+        <v>1009854</v>
+      </c>
+      <c r="E136">
+        <v>-3363225</v>
       </c>
       <c r="F136">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="G136">
+        <v>9</v>
+      </c>
+      <c r="H136">
+        <v>19</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">São Cristóvão </t>
+          <t xml:space="preserve">Simão Dias </t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C137">
-        <v>80145</v>
+        <v>4251631</v>
       </c>
       <c r="D137">
-        <v>27640</v>
+        <v>228294</v>
       </c>
       <c r="E137">
-        <v>-52505</v>
+        <v>-4023337</v>
       </c>
       <c r="F137">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G137">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138">
@@ -3575,14 +4043,20 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C138">
-        <v>68500</v>
+        <v>639095</v>
+      </c>
+      <c r="E138">
+        <v>-639095</v>
       </c>
       <c r="F138">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="H138">
+        <v>14</v>
       </c>
     </row>
     <row r="139">
@@ -3593,26 +4067,20 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C139">
-        <v>101752</v>
-      </c>
-      <c r="D139">
-        <v>760</v>
+        <v>148134</v>
       </c>
       <c r="E139">
-        <v>-100992</v>
+        <v>-148134</v>
       </c>
       <c r="F139">
-        <v>17</v>
-      </c>
-      <c r="G139">
+        <v>16</v>
+      </c>
+      <c r="H139">
         <v>12</v>
-      </c>
-      <c r="H139">
-        <v>4</v>
       </c>
     </row>
     <row r="140">
@@ -3623,152 +4091,158 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C140">
-        <v>8054260</v>
+        <v>80890</v>
+      </c>
+      <c r="D140">
+        <v>27640</v>
+      </c>
+      <c r="E140">
+        <v>-53250</v>
       </c>
       <c r="F140">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="G140">
+        <v>11</v>
+      </c>
+      <c r="H140">
+        <v>11</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve">São Domingos </t>
+          <t xml:space="preserve">São Cristóvão </t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C141">
-        <v>18544</v>
-      </c>
-      <c r="D141">
-        <v>398051</v>
+        <v>68500</v>
       </c>
       <c r="E141">
-        <v>379507</v>
+        <v>-68500</v>
       </c>
       <c r="F141">
-        <v>23</v>
-      </c>
-      <c r="G141">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t xml:space="preserve">São Domingos </t>
+          <t xml:space="preserve">São Cristóvão </t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
-        </is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="C142">
+        <v>193421</v>
       </c>
       <c r="D142">
-        <v>232003</v>
+        <v>760</v>
+      </c>
+      <c r="E142">
+        <v>-192661</v>
+      </c>
+      <c r="F142">
+        <v>17</v>
       </c>
       <c r="G142">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="H142">
+        <v>13</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tobias Barreto </t>
+          <t xml:space="preserve">São Cristóvão </t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C143">
-        <v>504966</v>
-      </c>
-      <c r="D143">
-        <v>93988</v>
+        <v>8317672</v>
       </c>
       <c r="E143">
-        <v>-410978</v>
+        <v>-8317672</v>
       </c>
       <c r="F143">
-        <v>14</v>
-      </c>
-      <c r="G143">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H143">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tobias Barreto </t>
+          <t xml:space="preserve">São Domingos </t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C144">
-        <v>400510</v>
+        <v>18544</v>
       </c>
       <c r="D144">
-        <v>160168</v>
+        <v>398051</v>
       </c>
       <c r="E144">
-        <v>-240342</v>
+        <v>379507</v>
       </c>
       <c r="F144">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G144">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tobias Barreto </t>
+          <t xml:space="preserve">São Domingos </t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="C145">
-        <v>902834</v>
+          <t>31/12/2020</t>
+        </is>
       </c>
       <c r="D145">
-        <v>62906</v>
+        <v>407146</v>
       </c>
       <c r="E145">
-        <v>-839928</v>
-      </c>
-      <c r="F145">
-        <v>12</v>
+        <v>407146</v>
       </c>
       <c r="G145">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H145">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
@@ -3779,26 +4253,26 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C146">
-        <v>803374</v>
+        <v>600252</v>
       </c>
       <c r="D146">
-        <v>130226</v>
+        <v>93988</v>
       </c>
       <c r="E146">
-        <v>-673148</v>
+        <v>-506264</v>
       </c>
       <c r="F146">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G146">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H146">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147">
@@ -3809,26 +4283,26 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C147">
-        <v>1733530</v>
+        <v>532726</v>
       </c>
       <c r="D147">
-        <v>286</v>
+        <v>160168</v>
       </c>
       <c r="E147">
-        <v>-1733244</v>
+        <v>-372558</v>
       </c>
       <c r="F147">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G147">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H147">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148">
@@ -3839,14 +4313,110 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="C148">
+        <v>1190880</v>
+      </c>
+      <c r="D148">
+        <v>62906</v>
+      </c>
+      <c r="E148">
+        <v>-1127974</v>
+      </c>
+      <c r="F148">
+        <v>11</v>
+      </c>
+      <c r="G148">
+        <v>9</v>
+      </c>
+      <c r="H148">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tobias Barreto </t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="C149">
+        <v>896508</v>
+      </c>
+      <c r="D149">
+        <v>130226</v>
+      </c>
+      <c r="E149">
+        <v>-766282</v>
+      </c>
+      <c r="F149">
+        <v>12</v>
+      </c>
+      <c r="G149">
+        <v>9</v>
+      </c>
+      <c r="H149">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tobias Barreto </t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="C150">
+        <v>1944645</v>
+      </c>
+      <c r="D150">
+        <v>286</v>
+      </c>
+      <c r="E150">
+        <v>-1944359</v>
+      </c>
+      <c r="F150">
+        <v>11</v>
+      </c>
+      <c r="G150">
+        <v>15</v>
+      </c>
+      <c r="H150">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tobias Barreto </t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
           <t>31/12/2024</t>
         </is>
       </c>
-      <c r="C148">
-        <v>831797</v>
-      </c>
-      <c r="F148">
+      <c r="C151">
+        <v>923378</v>
+      </c>
+      <c r="E151">
+        <v>-923378</v>
+      </c>
+      <c r="F151">
         <v>12</v>
+      </c>
+      <c r="H151">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Municípios/Data/Comércio exterior anual.xlsx
+++ b/Municípios/Data/Comércio exterior anual.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,16 +435,16 @@
         </is>
       </c>
       <c r="C3">
-        <v>5201</v>
+        <v>55659</v>
       </c>
       <c r="E3">
-        <v>-5201</v>
+        <v>-55659</v>
       </c>
       <c r="F3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         </is>
       </c>
       <c r="C5">
-        <v>21094511</v>
+        <v>21372710</v>
       </c>
       <c r="D5">
-        <v>2173469</v>
+        <v>2338056</v>
       </c>
       <c r="E5">
-        <v>-18921042</v>
+        <v>-19034654</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -513,13 +513,13 @@
         </is>
       </c>
       <c r="C6">
-        <v>23863817</v>
+        <v>33673285</v>
       </c>
       <c r="D6">
-        <v>1461120</v>
+        <v>1734363</v>
       </c>
       <c r="E6">
-        <v>-22402697</v>
+        <v>-31938922</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="C7">
-        <v>20839863</v>
+        <v>22093443</v>
       </c>
       <c r="D7">
-        <v>2253621</v>
+        <v>2366892</v>
       </c>
       <c r="E7">
-        <v>-18586242</v>
+        <v>-19726551</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -573,13 +573,13 @@
         </is>
       </c>
       <c r="C8">
-        <v>6227844</v>
+        <v>8676469</v>
       </c>
       <c r="D8">
-        <v>2040162</v>
+        <v>2143532</v>
       </c>
       <c r="E8">
-        <v>-4187682</v>
+        <v>-6532937</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -588,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -603,13 +603,13 @@
         </is>
       </c>
       <c r="C9">
-        <v>12783258</v>
+        <v>14052211</v>
       </c>
       <c r="D9">
-        <v>1735493</v>
+        <v>1806782</v>
       </c>
       <c r="E9">
-        <v>-11047765</v>
+        <v>-12245429</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="C10">
-        <v>8464593</v>
+        <v>9531744</v>
       </c>
       <c r="D10">
-        <v>952924</v>
+        <v>1418263</v>
       </c>
       <c r="E10">
-        <v>-7511669</v>
+        <v>-8113481</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>7</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="C11">
-        <v>518531767</v>
+        <v>518610561</v>
       </c>
       <c r="E11">
-        <v>-518531767</v>
+        <v>-518610561</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -693,10 +693,10 @@
         <v>-17204393</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C13">
-        <v>8031211</v>
+        <v>8372404</v>
       </c>
       <c r="E13">
-        <v>-8031211</v>
+        <v>-8372404</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13">
         <v>22</v>
@@ -744,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15">
-        <v>30021036</v>
+        <v>63141678</v>
       </c>
       <c r="D15">
         <v>9053065</v>
       </c>
       <c r="E15">
-        <v>-20967971</v>
+        <v>-54088613</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>3</v>
       </c>
       <c r="H15">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="C16">
-        <v>1161930</v>
+        <v>96470983</v>
       </c>
       <c r="E16">
-        <v>-1161930</v>
+        <v>-96470983</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="D17">
-        <v>2155680</v>
+        <v>2721730</v>
       </c>
       <c r="E17">
-        <v>2155680</v>
+        <v>2721730</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -843,10 +843,10 @@
         <v>1379</v>
       </c>
       <c r="G18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="C19">
-        <v>151266</v>
+        <v>156983</v>
       </c>
       <c r="E19">
-        <v>-151266</v>
+        <v>-156983</v>
       </c>
       <c r="F19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -885,10 +885,10 @@
         </is>
       </c>
       <c r="C20">
-        <v>92697</v>
+        <v>94321</v>
       </c>
       <c r="E20">
-        <v>-92697</v>
+        <v>-94321</v>
       </c>
       <c r="F20">
         <v>18</v>
@@ -909,16 +909,16 @@
         </is>
       </c>
       <c r="C21">
-        <v>40948</v>
+        <v>41957</v>
       </c>
       <c r="E21">
-        <v>-40948</v>
+        <v>-41957</v>
       </c>
       <c r="F21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -990,7 +990,7 @@
         <v>22</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1038,7 +1038,7 @@
         <v>24</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="C27">
-        <v>4213928</v>
+        <v>5465028</v>
       </c>
       <c r="D27">
-        <v>25841095</v>
+        <v>28217406</v>
       </c>
       <c r="E27">
-        <v>21627167</v>
+        <v>22752378</v>
       </c>
       <c r="F27">
         <v>7</v>
@@ -1083,13 +1083,13 @@
         </is>
       </c>
       <c r="C28">
-        <v>13970985</v>
+        <v>14772863</v>
       </c>
       <c r="D28">
-        <v>27926390</v>
+        <v>30879444</v>
       </c>
       <c r="E28">
-        <v>13955405</v>
+        <v>16106581</v>
       </c>
       <c r="F28">
         <v>5</v>
@@ -1113,13 +1113,13 @@
         </is>
       </c>
       <c r="C29">
-        <v>13950745</v>
+        <v>16993482</v>
       </c>
       <c r="D29">
-        <v>27067948</v>
+        <v>32843453</v>
       </c>
       <c r="E29">
-        <v>13117203</v>
+        <v>15849971</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C30">
-        <v>9305987</v>
+        <v>9642251</v>
       </c>
       <c r="D30">
-        <v>57927184</v>
+        <v>66116326</v>
       </c>
       <c r="E30">
-        <v>48621197</v>
+        <v>56474075</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -1173,13 +1173,13 @@
         </is>
       </c>
       <c r="C31">
-        <v>8684273</v>
+        <v>10115109</v>
       </c>
       <c r="D31">
-        <v>54431585</v>
+        <v>67330013</v>
       </c>
       <c r="E31">
-        <v>45747312</v>
+        <v>57214904</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -1203,16 +1203,16 @@
         </is>
       </c>
       <c r="C32">
-        <v>7269965</v>
+        <v>7794661</v>
       </c>
       <c r="D32">
-        <v>73720034</v>
+        <v>99564871</v>
       </c>
       <c r="E32">
-        <v>66450069</v>
+        <v>91770210</v>
       </c>
       <c r="F32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1233,13 +1233,13 @@
         </is>
       </c>
       <c r="C33">
-        <v>1506030</v>
+        <v>1786836</v>
       </c>
       <c r="D33">
-        <v>2413600</v>
+        <v>3060944</v>
       </c>
       <c r="E33">
-        <v>907570</v>
+        <v>1274108</v>
       </c>
       <c r="F33">
         <v>11</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="C35">
-        <v>1108229</v>
+        <v>1489439</v>
       </c>
       <c r="D35">
-        <v>1120811</v>
+        <v>1177114</v>
       </c>
       <c r="E35">
-        <v>12582</v>
+        <v>-312325</v>
       </c>
       <c r="F35">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G35">
         <v>5</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="C36">
-        <v>1221388</v>
+        <v>1415309</v>
       </c>
       <c r="D36">
-        <v>2422887</v>
+        <v>2589820</v>
       </c>
       <c r="E36">
-        <v>1201499</v>
+        <v>1174511</v>
       </c>
       <c r="F36">
         <v>11</v>
@@ -1338,7 +1338,7 @@
         <v>4</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1365,7 +1365,7 @@
         <v>16</v>
       </c>
       <c r="G37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H37">
         <v>4</v>
@@ -1392,13 +1392,13 @@
         <v>-410746</v>
       </c>
       <c r="F38">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G38">
         <v>10</v>
       </c>
       <c r="H38">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -1413,16 +1413,16 @@
         </is>
       </c>
       <c r="C39">
-        <v>84111</v>
+        <v>174996</v>
       </c>
       <c r="E39">
-        <v>-84111</v>
+        <v>-174996</v>
       </c>
       <c r="F39">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H39">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -1446,7 +1446,7 @@
         <v>15</v>
       </c>
       <c r="H40">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C41">
-        <v>410416</v>
+        <v>599759</v>
       </c>
       <c r="D41">
         <v>82041</v>
       </c>
       <c r="E41">
-        <v>-328375</v>
+        <v>-517718</v>
       </c>
       <c r="F41">
         <v>13</v>
       </c>
       <c r="G41">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H41">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
@@ -1491,10 +1491,10 @@
         </is>
       </c>
       <c r="C42">
-        <v>1004625</v>
+        <v>1141370</v>
       </c>
       <c r="E42">
-        <v>-1004625</v>
+        <v>-1141370</v>
       </c>
       <c r="F42">
         <v>15</v>
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="C43">
-        <v>849945</v>
+        <v>995928</v>
       </c>
       <c r="E43">
-        <v>-849945</v>
+        <v>-995928</v>
       </c>
       <c r="F43">
         <v>13</v>
@@ -1548,7 +1548,7 @@
         <v>23</v>
       </c>
       <c r="H44">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -1569,10 +1569,10 @@
         <v>-4687</v>
       </c>
       <c r="F45">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H45">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -1587,16 +1587,16 @@
         </is>
       </c>
       <c r="C46">
-        <v>747062</v>
+        <v>963669</v>
       </c>
       <c r="E46">
-        <v>-747062</v>
+        <v>-963669</v>
       </c>
       <c r="F46">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H46">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="C47">
-        <v>729381</v>
+        <v>839957</v>
       </c>
       <c r="E47">
-        <v>-729381</v>
+        <v>-839957</v>
       </c>
       <c r="F47">
         <v>11</v>
@@ -1635,13 +1635,13 @@
         </is>
       </c>
       <c r="C48">
-        <v>830624</v>
+        <v>831523</v>
       </c>
       <c r="D48">
         <v>11</v>
       </c>
       <c r="E48">
-        <v>-830613</v>
+        <v>-831512</v>
       </c>
       <c r="F48">
         <v>13</v>
@@ -1650,7 +1650,7 @@
         <v>13</v>
       </c>
       <c r="H48">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -1665,22 +1665,22 @@
         </is>
       </c>
       <c r="C49">
-        <v>1481718</v>
+        <v>1760400</v>
       </c>
       <c r="D49">
         <v>2013</v>
       </c>
       <c r="E49">
-        <v>-1479705</v>
+        <v>-1758387</v>
       </c>
       <c r="F49">
         <v>10</v>
       </c>
       <c r="G49">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H49">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
@@ -1695,16 +1695,16 @@
         </is>
       </c>
       <c r="C50">
-        <v>1487838</v>
+        <v>1882176</v>
       </c>
       <c r="E50">
-        <v>-1487838</v>
+        <v>-1882176</v>
       </c>
       <c r="F50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H50">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -1719,16 +1719,16 @@
         </is>
       </c>
       <c r="C51">
-        <v>223465</v>
+        <v>263825</v>
       </c>
       <c r="E51">
-        <v>-223465</v>
+        <v>-263825</v>
       </c>
       <c r="F51">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H51">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
@@ -1791,13 +1791,13 @@
         </is>
       </c>
       <c r="C54">
-        <v>1846357</v>
+        <v>2133562</v>
       </c>
       <c r="D54">
-        <v>64924182</v>
+        <v>110936436</v>
       </c>
       <c r="E54">
-        <v>63077825</v>
+        <v>108802874</v>
       </c>
       <c r="F54">
         <v>12</v>
@@ -1821,16 +1821,16 @@
         </is>
       </c>
       <c r="C55">
-        <v>19315292</v>
+        <v>22514014</v>
       </c>
       <c r="D55">
-        <v>182941564</v>
+        <v>184298587</v>
       </c>
       <c r="E55">
-        <v>163626272</v>
+        <v>161784573</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -1847,20 +1847,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D56">
-        <v>1537867</v>
+        <v>36590</v>
       </c>
       <c r="E56">
-        <v>1537867</v>
+        <v>36590</v>
       </c>
       <c r="G56">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -1871,50 +1871,44 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D57">
-        <v>1573994</v>
+        <v>1728758</v>
       </c>
       <c r="E57">
-        <v>1573994</v>
+        <v>1728758</v>
       </c>
       <c r="G57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lagarto </t>
+          <t xml:space="preserve">Japoatã </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="C58">
-        <v>3627143</v>
+          <t>31/12/2024</t>
+        </is>
       </c>
       <c r="D58">
-        <v>177865</v>
+        <v>1690964</v>
       </c>
       <c r="E58">
-        <v>-3449278</v>
-      </c>
-      <c r="F58">
-        <v>8</v>
+        <v>1690964</v>
       </c>
       <c r="G58">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H58">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -1925,23 +1919,23 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C59">
-        <v>3073465</v>
+        <v>3940722</v>
       </c>
       <c r="D59">
-        <v>8460</v>
+        <v>200051</v>
       </c>
       <c r="E59">
-        <v>-3065005</v>
+        <v>-3740671</v>
       </c>
       <c r="F59">
         <v>8</v>
       </c>
       <c r="G59">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H59">
         <v>19</v>
@@ -1955,23 +1949,23 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C60">
-        <v>2489829</v>
+        <v>3329618</v>
       </c>
       <c r="D60">
-        <v>61772</v>
+        <v>18689</v>
       </c>
       <c r="E60">
-        <v>-2428057</v>
+        <v>-3310929</v>
       </c>
       <c r="F60">
         <v>8</v>
       </c>
       <c r="G60">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H60">
         <v>20</v>
@@ -1985,26 +1979,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C61">
-        <v>9064626</v>
+        <v>2792564</v>
       </c>
       <c r="D61">
-        <v>81039</v>
+        <v>76221</v>
       </c>
       <c r="E61">
-        <v>-8983587</v>
+        <v>-2716343</v>
       </c>
       <c r="F61">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G61">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H61">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
@@ -2015,26 +2009,26 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C62">
-        <v>3632257</v>
+        <v>9443096</v>
       </c>
       <c r="D62">
-        <v>56129</v>
+        <v>108339</v>
       </c>
       <c r="E62">
-        <v>-3576128</v>
+        <v>-9334757</v>
       </c>
       <c r="F62">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G62">
         <v>10</v>
       </c>
       <c r="H62">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63">
@@ -2045,56 +2039,56 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C63">
-        <v>5827817</v>
+        <v>4196813</v>
       </c>
       <c r="D63">
-        <v>15484</v>
+        <v>56129</v>
       </c>
       <c r="E63">
-        <v>-5812333</v>
+        <v>-4140684</v>
       </c>
       <c r="F63">
         <v>9</v>
       </c>
       <c r="G63">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H63">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laranjeiras </t>
+          <t xml:space="preserve">Lagarto </t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C64">
-        <v>11074835</v>
+        <v>6526382</v>
       </c>
       <c r="D64">
-        <v>3528770</v>
+        <v>45447</v>
       </c>
       <c r="E64">
-        <v>-7546065</v>
+        <v>-6480935</v>
       </c>
       <c r="F64">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H64">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
@@ -2105,23 +2099,23 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C65">
-        <v>3803549</v>
+        <v>12911898</v>
       </c>
       <c r="D65">
-        <v>518245</v>
+        <v>3528770</v>
       </c>
       <c r="E65">
-        <v>-3285304</v>
+        <v>-9383128</v>
       </c>
       <c r="F65">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G65">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H65">
         <v>20</v>
@@ -2135,26 +2129,26 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C66">
-        <v>4774570</v>
+        <v>3803932</v>
       </c>
       <c r="D66">
-        <v>4801054</v>
+        <v>518245</v>
       </c>
       <c r="E66">
-        <v>26484</v>
+        <v>-3285687</v>
       </c>
       <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66">
         <v>6</v>
       </c>
-      <c r="G66">
-        <v>2</v>
-      </c>
       <c r="H66">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
@@ -2165,17 +2159,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C67">
-        <v>13918810</v>
+        <v>8509120</v>
       </c>
       <c r="D67">
-        <v>10856708</v>
+        <v>4801054</v>
       </c>
       <c r="E67">
-        <v>-3062102</v>
+        <v>-3708066</v>
       </c>
       <c r="F67">
         <v>5</v>
@@ -2184,7 +2178,7 @@
         <v>2</v>
       </c>
       <c r="H67">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
@@ -2195,26 +2189,26 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C68">
-        <v>28378838</v>
+        <v>14119130</v>
       </c>
       <c r="D68">
-        <v>3726608</v>
+        <v>22553463</v>
       </c>
       <c r="E68">
-        <v>-24652230</v>
+        <v>8434333</v>
       </c>
       <c r="F68">
+        <v>5</v>
+      </c>
+      <c r="G68">
         <v>2</v>
       </c>
-      <c r="G68">
-        <v>4</v>
-      </c>
       <c r="H68">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -2225,50 +2219,56 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C69">
-        <v>23797309</v>
+        <v>28533188</v>
       </c>
       <c r="D69">
-        <v>2430704</v>
+        <v>3726608</v>
       </c>
       <c r="E69">
-        <v>-21366605</v>
+        <v>-24806580</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H69">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maruim </t>
+          <t xml:space="preserve">Laranjeiras </t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C70">
-        <v>30746605</v>
+        <v>26023897</v>
+      </c>
+      <c r="D70">
+        <v>2430704</v>
       </c>
       <c r="E70">
-        <v>-30746605</v>
+        <v>-23593193</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G70">
+        <v>4</v>
       </c>
       <c r="H70">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71">
@@ -2279,20 +2279,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C71">
-        <v>15347697</v>
+        <v>32103293</v>
       </c>
       <c r="E71">
-        <v>-15347697</v>
+        <v>-32103293</v>
       </c>
       <c r="F71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H71">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72">
@@ -2303,20 +2303,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C72">
-        <v>26543290</v>
+        <v>16073417</v>
       </c>
       <c r="E72">
-        <v>-26543290</v>
+        <v>-16073417</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H72">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73">
@@ -2327,20 +2327,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C73">
-        <v>31720425</v>
+        <v>27962579</v>
       </c>
       <c r="E73">
-        <v>-31720425</v>
+        <v>-27962579</v>
       </c>
       <c r="F73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74">
@@ -2351,20 +2351,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C74">
-        <v>18648474</v>
+        <v>40758094</v>
       </c>
       <c r="E74">
-        <v>-18648474</v>
+        <v>-40758094</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H74">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75">
@@ -2375,44 +2375,44 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C75">
-        <v>38238468</v>
+        <v>22799758</v>
       </c>
       <c r="E75">
-        <v>-38238468</v>
+        <v>-22799758</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H75">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Moita Bonita </t>
+          <t xml:space="preserve">Maruim </t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C76">
-        <v>47860</v>
+        <v>39972995</v>
       </c>
       <c r="E76">
-        <v>-47860</v>
+        <v>-39972995</v>
       </c>
       <c r="F76">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H76">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77">
@@ -2423,20 +2423,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C77">
-        <v>47441</v>
+        <v>47860</v>
       </c>
       <c r="E77">
-        <v>-47441</v>
+        <v>-47860</v>
       </c>
       <c r="F77">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H77">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -2447,20 +2447,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C78">
-        <v>22503</v>
+        <v>47441</v>
       </c>
       <c r="E78">
-        <v>-22503</v>
+        <v>-47441</v>
       </c>
       <c r="F78">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H78">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79">
@@ -2471,26 +2471,26 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C79">
-        <v>45697</v>
+        <v>46503</v>
       </c>
       <c r="E79">
-        <v>-45697</v>
+        <v>-46503</v>
       </c>
       <c r="F79">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H79">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monte Alegre de Sergipe </t>
+          <t xml:space="preserve">Moita Bonita </t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2499,40 +2499,40 @@
         </is>
       </c>
       <c r="C80">
-        <v>2561</v>
+        <v>45697</v>
       </c>
       <c r="E80">
-        <v>-2561</v>
+        <v>-45697</v>
       </c>
       <c r="F80">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H80">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neópolis </t>
+          <t xml:space="preserve">Monte Alegre de Sergipe </t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C81">
-        <v>714422</v>
+        <v>2561</v>
       </c>
       <c r="E81">
-        <v>-714422</v>
+        <v>-2561</v>
       </c>
       <c r="F81">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H81">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -2543,26 +2543,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C82">
-        <v>331725</v>
-      </c>
-      <c r="D82">
-        <v>200001</v>
+        <v>714422</v>
       </c>
       <c r="E82">
-        <v>-131724</v>
+        <v>-714422</v>
       </c>
       <c r="F82">
         <v>15</v>
       </c>
-      <c r="G82">
-        <v>9</v>
-      </c>
       <c r="H82">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83">
@@ -2573,20 +2567,26 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C83">
-        <v>1238947</v>
+        <v>333770</v>
+      </c>
+      <c r="D83">
+        <v>200001</v>
       </c>
       <c r="E83">
-        <v>-1238947</v>
+        <v>-133769</v>
       </c>
       <c r="F83">
+        <v>15</v>
+      </c>
+      <c r="G83">
+        <v>9</v>
+      </c>
+      <c r="H83">
         <v>10</v>
-      </c>
-      <c r="H83">
-        <v>19</v>
       </c>
     </row>
     <row r="84">
@@ -2597,20 +2597,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C84">
-        <v>3366</v>
+        <v>1241042</v>
       </c>
       <c r="E84">
-        <v>-3366</v>
+        <v>-1241042</v>
       </c>
       <c r="F84">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H84">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85">
@@ -2621,20 +2621,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C85">
-        <v>106338</v>
+        <v>6998</v>
       </c>
       <c r="E85">
-        <v>-106338</v>
+        <v>-6998</v>
       </c>
       <c r="F85">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H85">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86">
@@ -2645,44 +2645,44 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C86">
-        <v>29585</v>
+        <v>107914</v>
       </c>
       <c r="E86">
-        <v>-29585</v>
+        <v>-107914</v>
       </c>
       <c r="F86">
         <v>19</v>
       </c>
       <c r="H86">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nossa Senhora Aparecida </t>
+          <t xml:space="preserve">Neópolis </t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D87">
-        <v>1406617</v>
+          <t>31/12/2024</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>36363</v>
       </c>
       <c r="E87">
-        <v>1406617</v>
-      </c>
-      <c r="G87">
-        <v>5</v>
+        <v>-36363</v>
+      </c>
+      <c r="F87">
+        <v>19</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
@@ -2693,17 +2693,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D88">
-        <v>529482</v>
+        <v>1522506</v>
       </c>
       <c r="E88">
-        <v>529482</v>
+        <v>1522506</v>
       </c>
       <c r="G88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -2717,20 +2717,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D89">
-        <v>205612</v>
+        <v>529482</v>
       </c>
       <c r="E89">
-        <v>205612</v>
+        <v>529482</v>
       </c>
       <c r="G89">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -2741,80 +2741,68 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D90">
-        <v>81945</v>
+        <v>310266</v>
       </c>
       <c r="E90">
-        <v>81945</v>
+        <v>310266</v>
       </c>
       <c r="G90">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nossa Senhora do Socorro </t>
+          <t xml:space="preserve">Nossa Senhora Aparecida </t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="C91">
-        <v>22317375</v>
+          <t>31/12/2022</t>
+        </is>
       </c>
       <c r="D91">
-        <v>576256</v>
+        <v>81945</v>
       </c>
       <c r="E91">
-        <v>-21741119</v>
-      </c>
-      <c r="F91">
-        <v>3</v>
+        <v>81945</v>
       </c>
       <c r="G91">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H91">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nossa Senhora do Socorro </t>
+          <t xml:space="preserve">Nossa Senhora da Glória </t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="C92">
-        <v>16685664</v>
+          <t>31/12/2022</t>
+        </is>
       </c>
       <c r="D92">
-        <v>287224</v>
+        <v>756</v>
       </c>
       <c r="E92">
-        <v>-16398440</v>
-      </c>
-      <c r="F92">
-        <v>3</v>
+        <v>756</v>
       </c>
       <c r="G92">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H92">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
@@ -2825,23 +2813,23 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C93">
-        <v>19693799</v>
+        <v>25493756</v>
       </c>
       <c r="D93">
-        <v>1773840</v>
+        <v>613760</v>
       </c>
       <c r="E93">
-        <v>-17919959</v>
+        <v>-24879996</v>
       </c>
       <c r="F93">
         <v>3</v>
       </c>
       <c r="G93">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H93">
         <v>23</v>
@@ -2855,26 +2843,26 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C94">
-        <v>15410880</v>
+        <v>19434527</v>
       </c>
       <c r="D94">
-        <v>2964339</v>
+        <v>374745</v>
       </c>
       <c r="E94">
-        <v>-12446541</v>
+        <v>-19059782</v>
       </c>
       <c r="F94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G94">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H94">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95">
@@ -2885,26 +2873,26 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C95">
-        <v>13707611</v>
+        <v>21838335</v>
       </c>
       <c r="D95">
-        <v>1501306</v>
+        <v>2181184</v>
       </c>
       <c r="E95">
-        <v>-12206305</v>
+        <v>-19657151</v>
       </c>
       <c r="F95">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H95">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96">
@@ -2915,170 +2903,182 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C96">
-        <v>13820381</v>
+        <v>16929313</v>
       </c>
       <c r="D96">
-        <v>1433519</v>
+        <v>3845595</v>
       </c>
       <c r="E96">
-        <v>-12386862</v>
+        <v>-13083718</v>
       </c>
       <c r="F96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G96">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H96">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pacatuba </t>
+          <t xml:space="preserve">Nossa Senhora do Socorro </t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C97">
-        <v>59514</v>
+        <v>16607782</v>
+      </c>
+      <c r="D97">
+        <v>1670288</v>
       </c>
       <c r="E97">
-        <v>-59514</v>
+        <v>-14937494</v>
       </c>
       <c r="F97">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="G97">
+        <v>7</v>
       </c>
       <c r="H97">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pacatuba </t>
+          <t xml:space="preserve">Nossa Senhora do Socorro </t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C98">
-        <v>136213</v>
+        <v>16059519</v>
+      </c>
+      <c r="D98">
+        <v>1690280</v>
       </c>
       <c r="E98">
-        <v>-136213</v>
+        <v>-14369239</v>
       </c>
       <c r="F98">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="G98">
+        <v>6</v>
       </c>
       <c r="H98">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pedrinhas </t>
+          <t xml:space="preserve">Pacatuba </t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C99">
-        <v>9373</v>
+        <v>59514</v>
       </c>
       <c r="E99">
-        <v>-9373</v>
+        <v>-59514</v>
       </c>
       <c r="F99">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H99">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pedrinhas </t>
+          <t xml:space="preserve">Pacatuba </t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D100">
-        <v>6650</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>136213</v>
       </c>
       <c r="E100">
-        <v>6650</v>
-      </c>
-      <c r="G100">
-        <v>12</v>
+        <v>-136213</v>
+      </c>
+      <c r="F100">
+        <v>15</v>
       </c>
       <c r="H100">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pirambu </t>
+          <t xml:space="preserve">Pedrinhas </t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C101">
-        <v>41833</v>
+        <v>9373</v>
       </c>
       <c r="E101">
-        <v>-41833</v>
+        <v>-9373</v>
       </c>
       <c r="F101">
         <v>21</v>
       </c>
       <c r="H101">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pirambu </t>
+          <t xml:space="preserve">Pedrinhas </t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="C102">
-        <v>643423</v>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="D102">
+        <v>6650</v>
       </c>
       <c r="E102">
-        <v>-643423</v>
-      </c>
-      <c r="F102">
-        <v>12</v>
+        <v>6650</v>
+      </c>
+      <c r="G102">
+        <v>13</v>
       </c>
       <c r="H102">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
@@ -3089,20 +3089,20 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C103">
-        <v>160310</v>
+        <v>41833</v>
       </c>
       <c r="E103">
-        <v>-160310</v>
+        <v>-41833</v>
       </c>
       <c r="F103">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H103">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104">
@@ -3113,20 +3113,20 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C104">
-        <v>120686</v>
+        <v>643423</v>
       </c>
       <c r="E104">
-        <v>-120686</v>
+        <v>-643423</v>
       </c>
       <c r="F104">
+        <v>12</v>
+      </c>
+      <c r="H104">
         <v>16</v>
-      </c>
-      <c r="H104">
-        <v>11</v>
       </c>
     </row>
     <row r="105">
@@ -3137,68 +3137,68 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C105">
-        <v>4944</v>
+        <v>169910</v>
       </c>
       <c r="E105">
-        <v>-4944</v>
+        <v>-169910</v>
       </c>
       <c r="F105">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H105">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poço Verde </t>
+          <t xml:space="preserve">Pirambu </t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C106">
-        <v>435686</v>
+        <v>120686</v>
       </c>
       <c r="E106">
-        <v>-435686</v>
+        <v>-120686</v>
       </c>
       <c r="F106">
         <v>16</v>
       </c>
       <c r="H106">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poço Verde </t>
+          <t xml:space="preserve">Pirambu </t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C107">
-        <v>93412</v>
+        <v>4944</v>
       </c>
       <c r="E107">
-        <v>-93412</v>
+        <v>-4944</v>
       </c>
       <c r="F107">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H107">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
@@ -3209,20 +3209,20 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C108">
-        <v>182887</v>
+        <v>435686</v>
       </c>
       <c r="E108">
-        <v>-182887</v>
+        <v>-435686</v>
       </c>
       <c r="F108">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H108">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109">
@@ -3233,74 +3233,74 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C109">
-        <v>606209</v>
-      </c>
-      <c r="D109">
-        <v>197680</v>
+        <v>93412</v>
       </c>
       <c r="E109">
-        <v>-408529</v>
+        <v>-93412</v>
       </c>
       <c r="F109">
-        <v>14</v>
-      </c>
-      <c r="G109">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H109">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Propriá </t>
+          <t xml:space="preserve">Poço Verde </t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C110">
-        <v>45624</v>
+        <v>182887</v>
       </c>
       <c r="E110">
-        <v>-45624</v>
+        <v>-182887</v>
       </c>
       <c r="F110">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H110">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Propriá </t>
+          <t xml:space="preserve">Poço Verde </t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C111">
-        <v>23171</v>
+        <v>606209</v>
+      </c>
+      <c r="D111">
+        <v>223894</v>
       </c>
       <c r="E111">
-        <v>-23171</v>
+        <v>-382315</v>
       </c>
       <c r="F111">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G111">
+        <v>9</v>
       </c>
       <c r="H111">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112">
@@ -3311,20 +3311,20 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C112">
-        <v>58442</v>
+        <v>45624</v>
       </c>
       <c r="E112">
-        <v>-58442</v>
+        <v>-45624</v>
       </c>
       <c r="F112">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H112">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
@@ -3335,80 +3335,68 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C113">
-        <v>29844</v>
+        <v>23171</v>
       </c>
       <c r="E113">
-        <v>-29844</v>
+        <v>-23171</v>
       </c>
       <c r="F113">
         <v>20</v>
       </c>
       <c r="H113">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Riachuelo </t>
+          <t xml:space="preserve">Propriá </t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C114">
-        <v>56498</v>
-      </c>
-      <c r="D114">
-        <v>5152</v>
+        <v>58442</v>
       </c>
       <c r="E114">
-        <v>-51346</v>
+        <v>-58442</v>
       </c>
       <c r="F114">
-        <v>19</v>
-      </c>
-      <c r="G114">
+        <v>18</v>
+      </c>
+      <c r="H114">
         <v>11</v>
-      </c>
-      <c r="H114">
-        <v>9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Riachuelo </t>
+          <t xml:space="preserve">Propriá </t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C115">
-        <v>427030</v>
-      </c>
-      <c r="D115">
-        <v>98722</v>
+        <v>29844</v>
       </c>
       <c r="E115">
-        <v>-328308</v>
+        <v>-29844</v>
       </c>
       <c r="F115">
-        <v>14</v>
-      </c>
-      <c r="G115">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H115">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116">
@@ -3419,23 +3407,23 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C116">
-        <v>543113</v>
+        <v>61084</v>
       </c>
       <c r="D116">
-        <v>505083</v>
+        <v>5152</v>
       </c>
       <c r="E116">
-        <v>-38030</v>
+        <v>-55932</v>
       </c>
       <c r="F116">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G116">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H116">
         <v>8</v>
@@ -3449,23 +3437,23 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C117">
-        <v>377962</v>
+        <v>427030</v>
       </c>
       <c r="D117">
-        <v>233889</v>
+        <v>146575</v>
       </c>
       <c r="E117">
-        <v>-144073</v>
+        <v>-280455</v>
       </c>
       <c r="F117">
         <v>14</v>
       </c>
       <c r="G117">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H117">
         <v>13</v>
@@ -3479,20 +3467,26 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C118">
-        <v>18669</v>
+        <v>549821</v>
+      </c>
+      <c r="D118">
+        <v>596817</v>
       </c>
       <c r="E118">
-        <v>-18669</v>
+        <v>46996</v>
       </c>
       <c r="F118">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="G118">
+        <v>7</v>
       </c>
       <c r="H118">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
@@ -3503,74 +3497,80 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C119">
-        <v>31106</v>
+        <v>377962</v>
+      </c>
+      <c r="D119">
+        <v>233889</v>
       </c>
       <c r="E119">
-        <v>-31106</v>
+        <v>-144073</v>
       </c>
       <c r="F119">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="G119">
+        <v>7</v>
       </c>
       <c r="H119">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ribeirópolis </t>
+          <t xml:space="preserve">Riachuelo </t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C120">
-        <v>23132</v>
+        <v>18669</v>
+      </c>
+      <c r="D120">
+        <v>30841</v>
       </c>
       <c r="E120">
-        <v>-23132</v>
+        <v>12172</v>
       </c>
       <c r="F120">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="G120">
+        <v>11</v>
       </c>
       <c r="H120">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ribeirópolis </t>
+          <t xml:space="preserve">Riachuelo </t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C121">
-        <v>3836</v>
-      </c>
-      <c r="D121">
-        <v>119809</v>
+        <v>31106</v>
       </c>
       <c r="E121">
-        <v>115973</v>
+        <v>-31106</v>
       </c>
       <c r="F121">
-        <v>22</v>
-      </c>
-      <c r="G121">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122">
@@ -3581,20 +3581,20 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C122">
-        <v>57260</v>
+        <v>973417</v>
       </c>
       <c r="E122">
-        <v>-57260</v>
+        <v>-973417</v>
       </c>
       <c r="F122">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H122">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123">
@@ -3605,23 +3605,23 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C123">
-        <v>81248</v>
+        <v>3836</v>
       </c>
       <c r="D123">
-        <v>142713</v>
+        <v>156658</v>
       </c>
       <c r="E123">
-        <v>61465</v>
+        <v>152822</v>
       </c>
       <c r="F123">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G123">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H123">
         <v>4</v>
@@ -3635,20 +3635,20 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C124">
-        <v>1750128</v>
+        <v>57260</v>
       </c>
       <c r="E124">
-        <v>-1750128</v>
+        <v>-57260</v>
       </c>
       <c r="F124">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H124">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125">
@@ -3659,80 +3659,74 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C125">
-        <v>22094</v>
+        <v>106306</v>
+      </c>
+      <c r="D125">
+        <v>142713</v>
       </c>
       <c r="E125">
-        <v>-22094</v>
+        <v>36407</v>
       </c>
       <c r="F125">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="G125">
+        <v>8</v>
       </c>
       <c r="H125">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rosário do Catete </t>
+          <t xml:space="preserve">Ribeirópolis </t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C126">
-        <v>2673601</v>
-      </c>
-      <c r="D126">
-        <v>2196</v>
+        <v>1755516</v>
       </c>
       <c r="E126">
-        <v>-2671405</v>
+        <v>-1755516</v>
       </c>
       <c r="F126">
-        <v>9</v>
-      </c>
-      <c r="G126">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H126">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rosário do Catete </t>
+          <t xml:space="preserve">Ribeirópolis </t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C127">
-        <v>7132904</v>
-      </c>
-      <c r="D127">
-        <v>5485</v>
+        <v>1749819</v>
       </c>
       <c r="E127">
-        <v>-7127419</v>
+        <v>-1749819</v>
       </c>
       <c r="F127">
-        <v>6</v>
-      </c>
-      <c r="G127">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H127">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128">
@@ -3743,26 +3737,26 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C128">
-        <v>4761721</v>
+        <v>2681689</v>
       </c>
       <c r="D128">
-        <v>1312</v>
+        <v>2196</v>
       </c>
       <c r="E128">
-        <v>-4760409</v>
+        <v>-2679493</v>
       </c>
       <c r="F128">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G128">
         <v>12</v>
       </c>
       <c r="H128">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129">
@@ -3773,26 +3767,26 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C129">
-        <v>33162853</v>
+        <v>7336486</v>
       </c>
       <c r="D129">
-        <v>5430</v>
+        <v>10958</v>
       </c>
       <c r="E129">
-        <v>-33157423</v>
+        <v>-7325528</v>
       </c>
       <c r="F129">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G129">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H129">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130">
@@ -3803,26 +3797,26 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C130">
-        <v>21750983</v>
+        <v>5776035</v>
       </c>
       <c r="D130">
-        <v>23787</v>
+        <v>1312</v>
       </c>
       <c r="E130">
-        <v>-21727196</v>
+        <v>-5774723</v>
       </c>
       <c r="F130">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G130">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H130">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131">
@@ -3833,23 +3827,23 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C131">
-        <v>31835643</v>
+        <v>34294718</v>
       </c>
       <c r="D131">
-        <v>3924</v>
+        <v>11455</v>
       </c>
       <c r="E131">
-        <v>-31831719</v>
+        <v>-34283263</v>
       </c>
       <c r="F131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G131">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H131">
         <v>24</v>
@@ -3858,61 +3852,61 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Simão Dias </t>
+          <t xml:space="preserve">Rosário do Catete </t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C132">
-        <v>2099708</v>
+        <v>23701938</v>
       </c>
       <c r="D132">
-        <v>865251</v>
+        <v>23787</v>
       </c>
       <c r="E132">
-        <v>-1234457</v>
+        <v>-23678151</v>
       </c>
       <c r="F132">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G132">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H132">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Simão Dias </t>
+          <t xml:space="preserve">Rosário do Catete </t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C133">
-        <v>2157167</v>
+        <v>36010589</v>
       </c>
       <c r="D133">
-        <v>457958</v>
+        <v>3924</v>
       </c>
       <c r="E133">
-        <v>-1699209</v>
+        <v>-36006665</v>
       </c>
       <c r="F133">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G133">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H133">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134">
@@ -3923,20 +3917,20 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C134">
-        <v>1774529</v>
+        <v>2300285</v>
       </c>
       <c r="D134">
-        <v>889966</v>
+        <v>1032488</v>
       </c>
       <c r="E134">
-        <v>-884563</v>
+        <v>-1267797</v>
       </c>
       <c r="F134">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G134">
         <v>6</v>
@@ -3953,26 +3947,26 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C135">
-        <v>2797532</v>
+        <v>2448433</v>
       </c>
       <c r="D135">
-        <v>966143</v>
+        <v>459021</v>
       </c>
       <c r="E135">
-        <v>-1831389</v>
+        <v>-1989412</v>
       </c>
       <c r="F135">
         <v>9</v>
       </c>
       <c r="G135">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H135">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136">
@@ -3983,26 +3977,26 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C136">
-        <v>4373079</v>
+        <v>1913772</v>
       </c>
       <c r="D136">
-        <v>1009854</v>
+        <v>951375</v>
       </c>
       <c r="E136">
-        <v>-3363225</v>
+        <v>-962397</v>
       </c>
       <c r="F136">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G136">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H136">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137">
@@ -4013,74 +4007,86 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C137">
-        <v>4251631</v>
+        <v>3575980</v>
       </c>
       <c r="D137">
-        <v>228294</v>
+        <v>1103635</v>
       </c>
       <c r="E137">
-        <v>-4023337</v>
+        <v>-2472345</v>
       </c>
       <c r="F137">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G137">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H137">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve">São Cristóvão </t>
+          <t xml:space="preserve">Simão Dias </t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C138">
-        <v>639095</v>
+        <v>4722826</v>
+      </c>
+      <c r="D138">
+        <v>1156397</v>
       </c>
       <c r="E138">
-        <v>-639095</v>
+        <v>-3566429</v>
       </c>
       <c r="F138">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="G138">
+        <v>9</v>
       </c>
       <c r="H138">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve">São Cristóvão </t>
+          <t xml:space="preserve">Simão Dias </t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C139">
-        <v>148134</v>
+        <v>4758884</v>
+      </c>
+      <c r="D139">
+        <v>300414</v>
       </c>
       <c r="E139">
-        <v>-148134</v>
+        <v>-4458470</v>
       </c>
       <c r="F139">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="G139">
+        <v>8</v>
       </c>
       <c r="H139">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140">
@@ -4091,26 +4097,20 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C140">
-        <v>80890</v>
-      </c>
-      <c r="D140">
-        <v>27640</v>
+        <v>668731</v>
       </c>
       <c r="E140">
-        <v>-53250</v>
+        <v>-668731</v>
       </c>
       <c r="F140">
-        <v>17</v>
-      </c>
-      <c r="G140">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H140">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141">
@@ -4121,20 +4121,20 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C141">
-        <v>68500</v>
+        <v>148832</v>
       </c>
       <c r="E141">
-        <v>-68500</v>
+        <v>-148832</v>
       </c>
       <c r="F141">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H141">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142">
@@ -4145,26 +4145,26 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C142">
-        <v>193421</v>
+        <v>80890</v>
       </c>
       <c r="D142">
-        <v>760</v>
+        <v>27640</v>
       </c>
       <c r="E142">
-        <v>-192661</v>
+        <v>-53250</v>
       </c>
       <c r="F142">
         <v>17</v>
       </c>
       <c r="G142">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H142">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143">
@@ -4175,80 +4175,80 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C143">
-        <v>8317672</v>
+        <v>70272</v>
       </c>
       <c r="E143">
-        <v>-8317672</v>
+        <v>-70272</v>
       </c>
       <c r="F143">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H143">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t xml:space="preserve">São Domingos </t>
+          <t xml:space="preserve">São Cristóvão </t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C144">
-        <v>18544</v>
+        <v>219058</v>
       </c>
       <c r="D144">
-        <v>398051</v>
+        <v>760</v>
       </c>
       <c r="E144">
-        <v>379507</v>
+        <v>-218298</v>
       </c>
       <c r="F144">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G144">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t xml:space="preserve">São Domingos </t>
+          <t xml:space="preserve">São Cristóvão </t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="D145">
-        <v>407146</v>
+          <t>31/12/2024</t>
+        </is>
+      </c>
+      <c r="C145">
+        <v>8329747</v>
       </c>
       <c r="E145">
-        <v>407146</v>
-      </c>
-      <c r="G145">
-        <v>7</v>
+        <v>-8329747</v>
+      </c>
+      <c r="F145">
+        <v>8</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tobias Barreto </t>
+          <t xml:space="preserve">São Domingos </t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4257,28 +4257,28 @@
         </is>
       </c>
       <c r="C146">
-        <v>600252</v>
+        <v>18544</v>
       </c>
       <c r="D146">
-        <v>93988</v>
+        <v>398051</v>
       </c>
       <c r="E146">
-        <v>-506264</v>
+        <v>379507</v>
       </c>
       <c r="F146">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G146">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H146">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tobias Barreto </t>
+          <t xml:space="preserve">São Domingos </t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4286,23 +4286,17 @@
           <t>31/12/2020</t>
         </is>
       </c>
-      <c r="C147">
-        <v>532726</v>
-      </c>
       <c r="D147">
-        <v>160168</v>
+        <v>628189</v>
       </c>
       <c r="E147">
-        <v>-372558</v>
-      </c>
-      <c r="F147">
-        <v>13</v>
+        <v>628189</v>
       </c>
       <c r="G147">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H147">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -4313,26 +4307,26 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C148">
-        <v>1190880</v>
+        <v>1009781</v>
       </c>
       <c r="D148">
-        <v>62906</v>
+        <v>95810</v>
       </c>
       <c r="E148">
-        <v>-1127974</v>
+        <v>-913971</v>
       </c>
       <c r="F148">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G148">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H148">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149">
@@ -4343,26 +4337,26 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C149">
-        <v>896508</v>
+        <v>564961</v>
       </c>
       <c r="D149">
-        <v>130226</v>
+        <v>198126</v>
       </c>
       <c r="E149">
-        <v>-766282</v>
+        <v>-366835</v>
       </c>
       <c r="F149">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G149">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H149">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150">
@@ -4373,26 +4367,26 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C150">
-        <v>1944645</v>
+        <v>1423510</v>
       </c>
       <c r="D150">
-        <v>286</v>
+        <v>62906</v>
       </c>
       <c r="E150">
-        <v>-1944359</v>
+        <v>-1360604</v>
       </c>
       <c r="F150">
         <v>11</v>
       </c>
       <c r="G150">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H150">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151">
@@ -4403,20 +4397,80 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C151">
-        <v>923378</v>
+        <v>1411503</v>
+      </c>
+      <c r="D151">
+        <v>130226</v>
       </c>
       <c r="E151">
-        <v>-923378</v>
+        <v>-1281277</v>
       </c>
       <c r="F151">
         <v>12</v>
       </c>
+      <c r="G151">
+        <v>9</v>
+      </c>
       <c r="H151">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tobias Barreto </t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="C152">
+        <v>2163552</v>
+      </c>
+      <c r="D152">
+        <v>286</v>
+      </c>
+      <c r="E152">
+        <v>-2163266</v>
+      </c>
+      <c r="F152">
+        <v>11</v>
+      </c>
+      <c r="G152">
         <v>16</v>
+      </c>
+      <c r="H152">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tobias Barreto </t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>31/12/2024</t>
+        </is>
+      </c>
+      <c r="C153">
+        <v>993706</v>
+      </c>
+      <c r="E153">
+        <v>-993706</v>
+      </c>
+      <c r="F153">
+        <v>14</v>
+      </c>
+      <c r="H153">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Municípios/Data/Comércio exterior anual.xlsx
+++ b/Municípios/Data/Comércio exterior anual.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,10 +417,10 @@
         <v>-7235</v>
       </c>
       <c r="F2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -435,16 +435,16 @@
         </is>
       </c>
       <c r="C3">
-        <v>55659</v>
+        <v>5201</v>
       </c>
       <c r="E3">
-        <v>-55659</v>
+        <v>-5201</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -465,10 +465,10 @@
         <v>1550</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -479,23 +479,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C5">
-        <v>21372710</v>
+        <v>14453580</v>
       </c>
       <c r="D5">
-        <v>2338056</v>
+        <v>253400</v>
       </c>
       <c r="E5">
-        <v>-19034654</v>
+        <v>-14200180</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>22</v>
@@ -509,26 +509,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C6">
-        <v>33673285</v>
+        <v>8516119</v>
       </c>
       <c r="D6">
-        <v>1734363</v>
+        <v>517802</v>
       </c>
       <c r="E6">
-        <v>-31938922</v>
+        <v>-7998317</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -539,26 +539,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C7">
-        <v>22093443</v>
+        <v>2183669</v>
       </c>
       <c r="D7">
-        <v>2366892</v>
+        <v>288678</v>
       </c>
       <c r="E7">
-        <v>-19726551</v>
+        <v>-1894991</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -569,26 +569,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C8">
-        <v>8676469</v>
+        <v>6094708</v>
       </c>
       <c r="D8">
-        <v>2143532</v>
+        <v>318164</v>
       </c>
       <c r="E8">
-        <v>-6532937</v>
+        <v>-5776544</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>5</v>
       </c>
       <c r="H8">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -599,26 +599,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C9">
-        <v>14052211</v>
+        <v>1862069</v>
       </c>
       <c r="D9">
-        <v>1806782</v>
+        <v>323738</v>
       </c>
       <c r="E9">
-        <v>-12245429</v>
+        <v>-1538331</v>
       </c>
       <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
         <v>6</v>
       </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
       <c r="H9">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -629,26 +629,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="C10">
-        <v>9531744</v>
+        <v>774616</v>
       </c>
       <c r="D10">
-        <v>1418263</v>
+        <v>223642</v>
       </c>
       <c r="E10">
-        <v>-8113481</v>
+        <v>-550974</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -659,20 +659,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C11">
-        <v>518610561</v>
+        <v>7264067</v>
       </c>
       <c r="E11">
-        <v>-518610561</v>
+        <v>-7264067</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -683,20 +683,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C12">
-        <v>17204393</v>
+        <v>3675</v>
       </c>
       <c r="E12">
-        <v>-17204393</v>
+        <v>-3675</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -707,20 +707,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C13">
-        <v>8372404</v>
+        <v>154752145</v>
       </c>
       <c r="E13">
-        <v>-8372404</v>
+        <v>-154752145</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -731,20 +731,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C14">
-        <v>180119050</v>
+        <v>895534</v>
       </c>
       <c r="E14">
-        <v>-180119050</v>
+        <v>-895534</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H14">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -755,26 +755,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C15">
-        <v>63141678</v>
-      </c>
-      <c r="D15">
-        <v>9053065</v>
+        <v>996430</v>
       </c>
       <c r="E15">
-        <v>-54088613</v>
+        <v>-996430</v>
       </c>
       <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H15">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -785,20 +779,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="C16">
-        <v>96470983</v>
+        <v>60735830</v>
+      </c>
+      <c r="D16">
+        <v>37980131</v>
       </c>
       <c r="E16">
-        <v>-96470983</v>
+        <v>-22755699</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
       <c r="H16">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -809,44 +809,44 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="D17">
-        <v>2721730</v>
+        <v>303160</v>
       </c>
       <c r="E17">
-        <v>2721730</v>
+        <v>303160</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Campo do Brito </t>
+          <t xml:space="preserve">Carmópolis </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>1379</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>25668</v>
       </c>
       <c r="E18">
-        <v>1379</v>
-      </c>
-      <c r="G18">
-        <v>14</v>
+        <v>-25668</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -857,20 +857,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C19">
-        <v>156983</v>
+        <v>28657</v>
       </c>
       <c r="E19">
-        <v>-156983</v>
+        <v>-28657</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -881,98 +881,116 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="C20">
-        <v>94321</v>
+        <v>2814</v>
       </c>
       <c r="E20">
-        <v>-94321</v>
+        <v>-2814</v>
       </c>
       <c r="F20">
         <v>18</v>
       </c>
       <c r="H20">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carmópolis </t>
+          <t xml:space="preserve">Estância </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C21">
-        <v>41957</v>
+        <v>3888222</v>
+      </c>
+      <c r="D21">
+        <v>10627882</v>
       </c>
       <c r="E21">
-        <v>-41957</v>
+        <v>6739660</v>
       </c>
       <c r="F21">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carmópolis </t>
+          <t xml:space="preserve">Estância </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C22">
-        <v>2707631</v>
+        <v>4094578</v>
+      </c>
+      <c r="D22">
+        <v>9375712</v>
       </c>
       <c r="E22">
-        <v>-2707631</v>
+        <v>5281134</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carmópolis </t>
+          <t xml:space="preserve">Estância </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C23">
-        <v>1494</v>
+        <v>3235365</v>
+      </c>
+      <c r="D23">
+        <v>14206109</v>
       </c>
       <c r="E23">
-        <v>-1494</v>
+        <v>10970744</v>
       </c>
       <c r="F23">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cedro de São João </t>
+          <t xml:space="preserve">Estância </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -981,1444 +999,1390 @@
         </is>
       </c>
       <c r="C24">
-        <v>9064</v>
+        <v>3153623</v>
+      </c>
+      <c r="D24">
+        <v>14029335</v>
       </c>
       <c r="E24">
-        <v>-9064</v>
+        <v>10875712</v>
       </c>
       <c r="F24">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Divina Pastora </t>
+          <t xml:space="preserve">Estância </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C25">
-        <v>1660</v>
+        <v>3383966</v>
+      </c>
+      <c r="D25">
+        <v>25429097</v>
       </c>
       <c r="E25">
-        <v>-1660</v>
+        <v>22045131</v>
       </c>
       <c r="F25">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Divina Pastora </t>
+          <t xml:space="preserve">Estância </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="C26">
-        <v>318</v>
+        <v>1429652</v>
+      </c>
+      <c r="D26">
+        <v>17339715</v>
       </c>
       <c r="E26">
-        <v>-318</v>
+        <v>15910063</v>
       </c>
       <c r="F26">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estância </t>
+          <t xml:space="preserve">Frei Paulo </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C27">
-        <v>5465028</v>
+        <v>629623</v>
       </c>
       <c r="D27">
-        <v>28217406</v>
+        <v>606750</v>
       </c>
       <c r="E27">
-        <v>22752378</v>
+        <v>-22873</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estância </t>
+          <t xml:space="preserve">Frei Paulo </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C28">
-        <v>14772863</v>
+        <v>431361</v>
       </c>
       <c r="D28">
-        <v>30879444</v>
+        <v>306190</v>
       </c>
       <c r="E28">
-        <v>16106581</v>
+        <v>-125171</v>
       </c>
       <c r="F28">
+        <v>11</v>
+      </c>
+      <c r="G28">
         <v>5</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
       <c r="H28">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estância </t>
+          <t xml:space="preserve">Frei Paulo </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C29">
-        <v>16993482</v>
+        <v>553116</v>
       </c>
       <c r="D29">
-        <v>32843453</v>
+        <v>967478</v>
       </c>
       <c r="E29">
-        <v>15849971</v>
+        <v>414362</v>
       </c>
       <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
         <v>4</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estância </t>
+          <t xml:space="preserve">Frei Paulo </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C30">
-        <v>9642251</v>
+        <v>50805</v>
       </c>
       <c r="D30">
-        <v>66116326</v>
+        <v>161888</v>
       </c>
       <c r="E30">
-        <v>56474075</v>
+        <v>111083</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estância </t>
+          <t xml:space="preserve">Frei Paulo </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C31">
-        <v>10115109</v>
+        <v>195413</v>
       </c>
       <c r="D31">
-        <v>67330013</v>
+        <v>69341</v>
       </c>
       <c r="E31">
-        <v>57214904</v>
+        <v>-126072</v>
       </c>
       <c r="F31">
+        <v>15</v>
+      </c>
+      <c r="G31">
         <v>7</v>
       </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
       <c r="H31">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estância </t>
+          <t xml:space="preserve">Frei Paulo </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="C32">
-        <v>7794661</v>
-      </c>
-      <c r="D32">
-        <v>99564871</v>
+        <v>428903</v>
       </c>
       <c r="E32">
-        <v>91770210</v>
+        <v>-428903</v>
       </c>
       <c r="F32">
-        <v>9</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frei Paulo </t>
+          <t xml:space="preserve">Itabaiana </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C33">
-        <v>1786836</v>
-      </c>
-      <c r="D33">
-        <v>3060944</v>
+        <v>174718</v>
       </c>
       <c r="E33">
-        <v>1274108</v>
+        <v>-174718</v>
       </c>
       <c r="F33">
-        <v>11</v>
-      </c>
-      <c r="G33">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frei Paulo </t>
+          <t xml:space="preserve">Itabaiana </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C34">
-        <v>1252203</v>
+        <v>251248</v>
       </c>
       <c r="D34">
-        <v>651806</v>
+        <v>82041</v>
       </c>
       <c r="E34">
-        <v>-600397</v>
+        <v>-169207</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H34">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frei Paulo </t>
+          <t xml:space="preserve">Itabaiana </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C35">
-        <v>1489439</v>
-      </c>
-      <c r="D35">
-        <v>1177114</v>
+        <v>526003</v>
       </c>
       <c r="E35">
-        <v>-312325</v>
+        <v>-526003</v>
       </c>
       <c r="F35">
-        <v>10</v>
-      </c>
-      <c r="G35">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H35">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frei Paulo </t>
+          <t xml:space="preserve">Itabaiana </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C36">
-        <v>1415309</v>
-      </c>
-      <c r="D36">
-        <v>2589820</v>
+        <v>439501</v>
       </c>
       <c r="E36">
-        <v>1174511</v>
+        <v>-439501</v>
       </c>
       <c r="F36">
+        <v>13</v>
+      </c>
+      <c r="H36">
         <v>11</v>
-      </c>
-      <c r="G36">
-        <v>4</v>
-      </c>
-      <c r="H36">
-        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frei Paulo </t>
+          <t xml:space="preserve">Itabaiana </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="C37">
-        <v>679388</v>
-      </c>
-      <c r="D37">
-        <v>1640274</v>
+        <v>355961</v>
       </c>
       <c r="E37">
-        <v>960886</v>
+        <v>-355961</v>
       </c>
       <c r="F37">
-        <v>16</v>
-      </c>
-      <c r="G37">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frei Paulo </t>
+          <t xml:space="preserve">Itabaianinha </t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C38">
-        <v>529275</v>
-      </c>
-      <c r="D38">
-        <v>118529</v>
+        <v>4431</v>
       </c>
       <c r="E38">
-        <v>-410746</v>
+        <v>-4431</v>
       </c>
       <c r="F38">
-        <v>16</v>
-      </c>
-      <c r="G38">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H38">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Itabaiana </t>
+          <t xml:space="preserve">Itabaianinha </t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="C39">
-        <v>174996</v>
+        <v>10148</v>
       </c>
       <c r="E39">
-        <v>-174996</v>
+        <v>-10148</v>
       </c>
       <c r="F39">
         <v>16</v>
       </c>
       <c r="H39">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Itabaiana </t>
+          <t>Itaporanga D'Ajuda</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C40">
-        <v>445145</v>
+        <v>207761</v>
       </c>
       <c r="E40">
-        <v>-445145</v>
+        <v>-207761</v>
       </c>
       <c r="F40">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H40">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Itabaiana </t>
+          <t>Itaporanga D'Ajuda</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C41">
-        <v>599759</v>
-      </c>
-      <c r="D41">
-        <v>82041</v>
+        <v>608136</v>
       </c>
       <c r="E41">
-        <v>-517718</v>
+        <v>-608136</v>
       </c>
       <c r="F41">
-        <v>13</v>
-      </c>
-      <c r="G41">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H41">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Itabaiana </t>
+          <t>Itaporanga D'Ajuda</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C42">
-        <v>1141370</v>
+        <v>128405</v>
       </c>
       <c r="E42">
-        <v>-1141370</v>
+        <v>-128405</v>
       </c>
       <c r="F42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H42">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Itabaiana </t>
+          <t>Itaporanga D'Ajuda</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C43">
-        <v>995928</v>
+        <v>10790</v>
       </c>
       <c r="E43">
-        <v>-995928</v>
+        <v>-10790</v>
       </c>
       <c r="F43">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H43">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Itabaianinha </t>
+          <t>Itaporanga D'Ajuda</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C44">
-        <v>4431</v>
+        <v>92843</v>
       </c>
       <c r="E44">
-        <v>-4431</v>
+        <v>-92843</v>
       </c>
       <c r="F44">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Itabaianinha </t>
+          <t>Itaporanga D'Ajuda</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="C45">
-        <v>4687</v>
+        <v>12545</v>
       </c>
       <c r="E45">
-        <v>-4687</v>
+        <v>-12545</v>
       </c>
       <c r="F45">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H45">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Itaporanga D'Ajuda</t>
+          <t xml:space="preserve">Japaratuba </t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="C46">
-        <v>963669</v>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="D46">
+        <v>33693580</v>
       </c>
       <c r="E46">
-        <v>-963669</v>
-      </c>
-      <c r="F46">
-        <v>14</v>
+        <v>33693580</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Itaporanga D'Ajuda</t>
+          <t xml:space="preserve">Japaratuba </t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C47">
-        <v>839957</v>
+        <v>964797</v>
+      </c>
+      <c r="D47">
+        <v>41580238</v>
       </c>
       <c r="E47">
-        <v>-839957</v>
+        <v>40615441</v>
       </c>
       <c r="F47">
         <v>11</v>
       </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
       <c r="H47">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Itaporanga D'Ajuda</t>
+          <t xml:space="preserve">Japaratuba </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="C48">
-        <v>831523</v>
+        <v>798296</v>
       </c>
       <c r="D48">
-        <v>11</v>
+        <v>40096037</v>
       </c>
       <c r="E48">
-        <v>-831512</v>
+        <v>39297741</v>
       </c>
       <c r="F48">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G48">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Itaporanga D'Ajuda</t>
+          <t xml:space="preserve">Japoatã </t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="C49">
-        <v>1760400</v>
+          <t>31/12/2023</t>
+        </is>
       </c>
       <c r="D49">
-        <v>2013</v>
+        <v>310470</v>
       </c>
       <c r="E49">
-        <v>-1758387</v>
-      </c>
-      <c r="F49">
-        <v>10</v>
+        <v>310470</v>
       </c>
       <c r="G49">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H49">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Itaporanga D'Ajuda</t>
+          <t xml:space="preserve">Japoatã </t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="C50">
-        <v>1882176</v>
+          <t>31/12/2024</t>
+        </is>
+      </c>
+      <c r="D50">
+        <v>1057221</v>
       </c>
       <c r="E50">
-        <v>-1882176</v>
-      </c>
-      <c r="F50">
-        <v>13</v>
+        <v>1057221</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
       </c>
       <c r="H50">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Itaporanga D'Ajuda</t>
+          <t xml:space="preserve">Japoatã </t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
-        </is>
-      </c>
-      <c r="C51">
-        <v>263825</v>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="D51">
+        <v>385709</v>
       </c>
       <c r="E51">
-        <v>-263825</v>
-      </c>
-      <c r="F51">
-        <v>17</v>
+        <v>385709</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
       </c>
       <c r="H51">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Japaratuba </t>
+          <t xml:space="preserve">Lagarto </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C52">
-        <v>18136985</v>
+        <v>1223157</v>
+      </c>
+      <c r="D52">
+        <v>8460</v>
       </c>
       <c r="E52">
-        <v>-18136985</v>
+        <v>-1214697</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>13</v>
       </c>
       <c r="H52">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Japaratuba </t>
+          <t xml:space="preserve">Lagarto </t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C53">
-        <v>93</v>
+        <v>837474</v>
+      </c>
+      <c r="D53">
+        <v>14791</v>
       </c>
       <c r="E53">
-        <v>-93</v>
+        <v>-822683</v>
       </c>
       <c r="F53">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="G53">
+        <v>8</v>
       </c>
       <c r="H53">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Japaratuba </t>
+          <t xml:space="preserve">Lagarto </t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C54">
-        <v>2133562</v>
-      </c>
-      <c r="D54">
-        <v>110936436</v>
+        <v>5836741</v>
       </c>
       <c r="E54">
-        <v>108802874</v>
+        <v>-5836741</v>
       </c>
       <c r="F54">
-        <v>12</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Japaratuba </t>
+          <t xml:space="preserve">Lagarto </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C55">
-        <v>22514014</v>
-      </c>
-      <c r="D55">
-        <v>184298587</v>
+        <v>921310</v>
       </c>
       <c r="E55">
-        <v>161784573</v>
+        <v>-921310</v>
       </c>
       <c r="F55">
-        <v>5</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Japoatã </t>
+          <t xml:space="preserve">Lagarto </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>36590</v>
+          <t>31/12/2024</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>1446672</v>
       </c>
       <c r="E56">
-        <v>36590</v>
-      </c>
-      <c r="G56">
-        <v>13</v>
+        <v>-1446672</v>
+      </c>
+      <c r="F56">
+        <v>9</v>
       </c>
       <c r="H56">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Japoatã </t>
+          <t xml:space="preserve">Lagarto </t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>2763931</v>
       </c>
       <c r="D57">
-        <v>1728758</v>
+        <v>102520</v>
       </c>
       <c r="E57">
-        <v>1728758</v>
+        <v>-2661411</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
       </c>
       <c r="G57">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Japoatã </t>
+          <t xml:space="preserve">Laranjeiras </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
-        </is>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>1797555</v>
       </c>
       <c r="D58">
-        <v>1690964</v>
+        <v>417325</v>
       </c>
       <c r="E58">
-        <v>1690964</v>
+        <v>-1380230</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
       </c>
       <c r="G58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lagarto </t>
+          <t xml:space="preserve">Laranjeiras </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C59">
-        <v>3940722</v>
-      </c>
-      <c r="D59">
-        <v>200051</v>
+        <v>1912709</v>
       </c>
       <c r="E59">
-        <v>-3740671</v>
+        <v>-1912709</v>
       </c>
       <c r="F59">
-        <v>8</v>
-      </c>
-      <c r="G59">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H59">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lagarto </t>
+          <t xml:space="preserve">Laranjeiras </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C60">
-        <v>3329618</v>
+        <v>1791905</v>
       </c>
       <c r="D60">
-        <v>18689</v>
+        <v>967840</v>
       </c>
       <c r="E60">
-        <v>-3310929</v>
+        <v>-824065</v>
       </c>
       <c r="F60">
         <v>8</v>
       </c>
       <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60">
         <v>13</v>
-      </c>
-      <c r="H60">
-        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lagarto </t>
+          <t xml:space="preserve">Laranjeiras </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C61">
-        <v>2792564</v>
+        <v>19928468</v>
       </c>
       <c r="D61">
-        <v>76221</v>
+        <v>3010200</v>
       </c>
       <c r="E61">
-        <v>-2716343</v>
+        <v>-16918268</v>
       </c>
       <c r="F61">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H61">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lagarto </t>
+          <t xml:space="preserve">Laranjeiras </t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C62">
-        <v>9443096</v>
+        <v>13498659</v>
       </c>
       <c r="D62">
-        <v>108339</v>
+        <v>2430704</v>
       </c>
       <c r="E62">
-        <v>-9334757</v>
+        <v>-11067955</v>
       </c>
       <c r="F62">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G62">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H62">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lagarto </t>
+          <t xml:space="preserve">Laranjeiras </t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="C63">
-        <v>4196813</v>
+        <v>4282848</v>
       </c>
       <c r="D63">
-        <v>56129</v>
+        <v>2127254</v>
       </c>
       <c r="E63">
-        <v>-4140684</v>
+        <v>-2155594</v>
       </c>
       <c r="F63">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G63">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H63">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lagarto </t>
+          <t xml:space="preserve">Maruim </t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C64">
-        <v>6526382</v>
-      </c>
-      <c r="D64">
-        <v>45447</v>
+        <v>3945381</v>
       </c>
       <c r="E64">
-        <v>-6480935</v>
+        <v>-3945381</v>
       </c>
       <c r="F64">
-        <v>10</v>
-      </c>
-      <c r="G64">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H64">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laranjeiras </t>
+          <t xml:space="preserve">Maruim </t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C65">
-        <v>12911898</v>
-      </c>
-      <c r="D65">
-        <v>3528770</v>
+        <v>1639690</v>
       </c>
       <c r="E65">
-        <v>-9383128</v>
+        <v>-1639690</v>
       </c>
       <c r="F65">
-        <v>6</v>
-      </c>
-      <c r="G65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H65">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laranjeiras </t>
+          <t xml:space="preserve">Maruim </t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C66">
-        <v>3803932</v>
-      </c>
-      <c r="D66">
-        <v>518245</v>
+        <v>9421940</v>
       </c>
       <c r="E66">
-        <v>-3285687</v>
+        <v>-9421940</v>
       </c>
       <c r="F66">
-        <v>7</v>
-      </c>
-      <c r="G66">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H66">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laranjeiras </t>
+          <t xml:space="preserve">Maruim </t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C67">
-        <v>8509120</v>
-      </c>
-      <c r="D67">
-        <v>4801054</v>
+        <v>9114485</v>
       </c>
       <c r="E67">
-        <v>-3708066</v>
+        <v>-9114485</v>
       </c>
       <c r="F67">
-        <v>5</v>
-      </c>
-      <c r="G67">
         <v>2</v>
       </c>
       <c r="H67">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laranjeiras </t>
+          <t xml:space="preserve">Maruim </t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C68">
-        <v>14119130</v>
-      </c>
-      <c r="D68">
-        <v>22553463</v>
+        <v>19538598</v>
       </c>
       <c r="E68">
-        <v>8434333</v>
+        <v>-19538598</v>
       </c>
       <c r="F68">
-        <v>5</v>
-      </c>
-      <c r="G68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laranjeiras </t>
+          <t xml:space="preserve">Maruim </t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="C69">
-        <v>28533188</v>
-      </c>
-      <c r="D69">
-        <v>3726608</v>
+        <v>7727152</v>
       </c>
       <c r="E69">
-        <v>-24806580</v>
+        <v>-7727152</v>
       </c>
       <c r="F69">
         <v>2</v>
       </c>
-      <c r="G69">
-        <v>4</v>
-      </c>
       <c r="H69">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laranjeiras </t>
+          <t xml:space="preserve">Moita Bonita </t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C70">
-        <v>26023897</v>
-      </c>
-      <c r="D70">
-        <v>2430704</v>
+        <v>27271</v>
       </c>
       <c r="E70">
-        <v>-23593193</v>
+        <v>-27271</v>
       </c>
       <c r="F70">
-        <v>4</v>
-      </c>
-      <c r="G70">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H70">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maruim </t>
+          <t xml:space="preserve">Neópolis </t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C71">
-        <v>32103293</v>
+        <v>17255</v>
+      </c>
+      <c r="D71">
+        <v>200001</v>
       </c>
       <c r="E71">
-        <v>-32103293</v>
+        <v>182746</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="G71">
+        <v>6</v>
       </c>
       <c r="H71">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maruim </t>
+          <t xml:space="preserve">Neópolis </t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C72">
-        <v>16073417</v>
+        <v>893315</v>
       </c>
       <c r="E72">
-        <v>-16073417</v>
+        <v>-893315</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H72">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maruim </t>
+          <t xml:space="preserve">Neópolis </t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C73">
-        <v>27962579</v>
+        <v>18708</v>
       </c>
       <c r="E73">
-        <v>-27962579</v>
+        <v>-18708</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H73">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maruim </t>
+          <t xml:space="preserve">Neópolis </t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C74">
-        <v>40758094</v>
+        <v>22995</v>
       </c>
       <c r="E74">
-        <v>-40758094</v>
+        <v>-22995</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H74">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maruim </t>
+          <t xml:space="preserve">Neópolis </t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="C75">
-        <v>22799758</v>
+        <v>2057</v>
       </c>
       <c r="E75">
-        <v>-22799758</v>
+        <v>-2057</v>
       </c>
       <c r="F75">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H75">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maruim </t>
+          <t xml:space="preserve">Nossa Senhora Aparecida </t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
-        </is>
-      </c>
-      <c r="C76">
-        <v>39972995</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D76">
+        <v>198430</v>
       </c>
       <c r="E76">
-        <v>-39972995</v>
-      </c>
-      <c r="F76">
+        <v>198430</v>
+      </c>
+      <c r="G76">
+        <v>7</v>
+      </c>
+      <c r="H76">
         <v>2</v>
-      </c>
-      <c r="H76">
-        <v>24</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Moita Bonita </t>
+          <t xml:space="preserve">Nossa Senhora Aparecida </t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2426,23 +2390,23 @@
           <t>31/12/2021</t>
         </is>
       </c>
-      <c r="C77">
-        <v>47860</v>
+      <c r="D77">
+        <v>12987</v>
       </c>
       <c r="E77">
-        <v>-47860</v>
-      </c>
-      <c r="F77">
-        <v>21</v>
+        <v>12987</v>
+      </c>
+      <c r="G77">
+        <v>9</v>
       </c>
       <c r="H77">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Moita Bonita </t>
+          <t xml:space="preserve">Nossa Senhora Aparecida </t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2450,173 +2414,203 @@
           <t>31/12/2022</t>
         </is>
       </c>
-      <c r="C78">
-        <v>47441</v>
+      <c r="D78">
+        <v>32778</v>
       </c>
       <c r="E78">
-        <v>-47441</v>
-      </c>
-      <c r="F78">
-        <v>19</v>
+        <v>32778</v>
+      </c>
+      <c r="G78">
+        <v>10</v>
       </c>
       <c r="H78">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Moita Bonita </t>
+          <t xml:space="preserve">Nossa Senhora do Socorro </t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C79">
-        <v>46503</v>
+        <v>9106755</v>
+      </c>
+      <c r="D79">
+        <v>66302</v>
       </c>
       <c r="E79">
-        <v>-46503</v>
+        <v>-9040453</v>
       </c>
       <c r="F79">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>11</v>
       </c>
       <c r="H79">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Moita Bonita </t>
+          <t xml:space="preserve">Nossa Senhora do Socorro </t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C80">
-        <v>45697</v>
+        <v>8526452</v>
+      </c>
+      <c r="D80">
+        <v>469759</v>
       </c>
       <c r="E80">
-        <v>-45697</v>
+        <v>-8056693</v>
       </c>
       <c r="F80">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
       </c>
       <c r="H80">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monte Alegre de Sergipe </t>
+          <t xml:space="preserve">Nossa Senhora do Socorro </t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C81">
-        <v>2561</v>
+        <v>4986367</v>
+      </c>
+      <c r="D81">
+        <v>1558456</v>
       </c>
       <c r="E81">
-        <v>-2561</v>
+        <v>-3427911</v>
       </c>
       <c r="F81">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
       </c>
       <c r="H81">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neópolis </t>
+          <t xml:space="preserve">Nossa Senhora do Socorro </t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C82">
-        <v>714422</v>
+        <v>5157995</v>
+      </c>
+      <c r="D82">
+        <v>412832</v>
       </c>
       <c r="E82">
-        <v>-714422</v>
+        <v>-4745163</v>
       </c>
       <c r="F82">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="G82">
+        <v>4</v>
       </c>
       <c r="H82">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neópolis </t>
+          <t xml:space="preserve">Nossa Senhora do Socorro </t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C83">
-        <v>333770</v>
+        <v>5572605</v>
       </c>
       <c r="D83">
-        <v>200001</v>
+        <v>615844</v>
       </c>
       <c r="E83">
-        <v>-133769</v>
+        <v>-4956761</v>
       </c>
       <c r="F83">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G83">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H83">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neópolis </t>
+          <t xml:space="preserve">Nossa Senhora do Socorro </t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="C84">
-        <v>1241042</v>
+        <v>4345331</v>
+      </c>
+      <c r="D84">
+        <v>812423</v>
       </c>
       <c r="E84">
-        <v>-1241042</v>
+        <v>-3532908</v>
       </c>
       <c r="F84">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="G84">
+        <v>5</v>
       </c>
       <c r="H84">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neópolis </t>
+          <t xml:space="preserve">Pacatuba </t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2625,490 +2619,478 @@
         </is>
       </c>
       <c r="C85">
-        <v>6998</v>
+        <v>39554</v>
       </c>
       <c r="E85">
-        <v>-6998</v>
+        <v>-39554</v>
       </c>
       <c r="F85">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H85">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neópolis </t>
+          <t xml:space="preserve">Pirambu </t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C86">
-        <v>107914</v>
+        <v>585844</v>
       </c>
       <c r="E86">
-        <v>-107914</v>
+        <v>-585844</v>
       </c>
       <c r="F86">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H86">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neópolis </t>
+          <t xml:space="preserve">Pirambu </t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C87">
-        <v>36363</v>
+        <v>87139</v>
       </c>
       <c r="E87">
-        <v>-36363</v>
+        <v>-87139</v>
       </c>
       <c r="F87">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H87">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nossa Senhora Aparecida </t>
+          <t xml:space="preserve">Pirambu </t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D88">
-        <v>1522506</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>57986</v>
       </c>
       <c r="E88">
-        <v>1522506</v>
-      </c>
-      <c r="G88">
-        <v>5</v>
+        <v>-57986</v>
+      </c>
+      <c r="F88">
+        <v>15</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nossa Senhora Aparecida </t>
+          <t xml:space="preserve">Pirambu </t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="D89">
-        <v>529482</v>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>4944</v>
       </c>
       <c r="E89">
-        <v>529482</v>
-      </c>
-      <c r="G89">
+        <v>-4944</v>
+      </c>
+      <c r="F89">
+        <v>18</v>
+      </c>
+      <c r="H89">
         <v>5</v>
-      </c>
-      <c r="H89">
-        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nossa Senhora Aparecida </t>
+          <t xml:space="preserve">Poço Verde </t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="D90">
-        <v>310266</v>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>90937</v>
       </c>
       <c r="E90">
-        <v>310266</v>
-      </c>
-      <c r="G90">
-        <v>8</v>
+        <v>-90937</v>
+      </c>
+      <c r="F90">
+        <v>12</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nossa Senhora Aparecida </t>
+          <t xml:space="preserve">Poço Verde </t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
+          <t>31/12/2024</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>606209</v>
       </c>
       <c r="D91">
-        <v>81945</v>
+        <v>11988</v>
       </c>
       <c r="E91">
-        <v>81945</v>
+        <v>-594221</v>
+      </c>
+      <c r="F91">
+        <v>12</v>
       </c>
       <c r="G91">
+        <v>9</v>
+      </c>
+      <c r="H91">
         <v>12</v>
-      </c>
-      <c r="H91">
-        <v>4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nossa Senhora da Glória </t>
+          <t xml:space="preserve">Poço Verde </t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="D92">
-        <v>756</v>
+        <v>98777</v>
       </c>
       <c r="E92">
-        <v>756</v>
+        <v>98777</v>
       </c>
       <c r="G92">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H92">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nossa Senhora do Socorro </t>
+          <t xml:space="preserve">Propriá </t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C93">
-        <v>25493756</v>
-      </c>
-      <c r="D93">
-        <v>613760</v>
+        <v>23171</v>
       </c>
       <c r="E93">
-        <v>-24879996</v>
+        <v>-23171</v>
       </c>
       <c r="F93">
-        <v>3</v>
-      </c>
-      <c r="G93">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H93">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nossa Senhora do Socorro </t>
+          <t xml:space="preserve">Propriá </t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C94">
-        <v>19434527</v>
-      </c>
-      <c r="D94">
-        <v>374745</v>
+        <v>58442</v>
       </c>
       <c r="E94">
-        <v>-19059782</v>
+        <v>-58442</v>
       </c>
       <c r="F94">
-        <v>2</v>
-      </c>
-      <c r="G94">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H94">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nossa Senhora do Socorro </t>
+          <t xml:space="preserve">Propriá </t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C95">
-        <v>21838335</v>
-      </c>
-      <c r="D95">
-        <v>2181184</v>
+        <v>28604</v>
       </c>
       <c r="E95">
-        <v>-19657151</v>
+        <v>-28604</v>
       </c>
       <c r="F95">
-        <v>3</v>
-      </c>
-      <c r="G95">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H95">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nossa Senhora do Socorro </t>
+          <t xml:space="preserve">Riachuelo </t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C96">
-        <v>16929313</v>
+        <v>379587</v>
       </c>
       <c r="D96">
-        <v>3845595</v>
+        <v>98722</v>
       </c>
       <c r="E96">
-        <v>-13083718</v>
+        <v>-280865</v>
       </c>
       <c r="F96">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G96">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H96">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nossa Senhora do Socorro </t>
+          <t xml:space="preserve">Riachuelo </t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C97">
-        <v>16607782</v>
+        <v>48983</v>
       </c>
       <c r="D97">
-        <v>1670288</v>
+        <v>112651</v>
       </c>
       <c r="E97">
-        <v>-14937494</v>
+        <v>63668</v>
       </c>
       <c r="F97">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G97">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H97">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nossa Senhora do Socorro </t>
+          <t xml:space="preserve">Riachuelo </t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C98">
-        <v>16059519</v>
+        <v>274407</v>
       </c>
       <c r="D98">
-        <v>1690280</v>
+        <v>67542</v>
       </c>
       <c r="E98">
-        <v>-14369239</v>
+        <v>-206865</v>
       </c>
       <c r="F98">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G98">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H98">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pacatuba </t>
+          <t xml:space="preserve">Riachuelo </t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C99">
-        <v>59514</v>
+        <v>28227</v>
       </c>
       <c r="E99">
-        <v>-59514</v>
+        <v>-28227</v>
       </c>
       <c r="F99">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H99">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pacatuba </t>
+          <t xml:space="preserve">Riachuelo </t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="C100">
-        <v>136213</v>
+        <v>3029</v>
       </c>
       <c r="E100">
-        <v>-136213</v>
+        <v>-3029</v>
       </c>
       <c r="F100">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H100">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pedrinhas </t>
+          <t xml:space="preserve">Ribeirópolis </t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="C101">
-        <v>9373</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D101">
+        <v>36655</v>
       </c>
       <c r="E101">
-        <v>-9373</v>
-      </c>
-      <c r="F101">
-        <v>21</v>
+        <v>36655</v>
+      </c>
+      <c r="G101">
+        <v>12</v>
       </c>
       <c r="H101">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pedrinhas </t>
+          <t xml:space="preserve">Ribeirópolis </t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D102">
-        <v>6650</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>12415</v>
       </c>
       <c r="E102">
-        <v>6650</v>
-      </c>
-      <c r="G102">
-        <v>13</v>
+        <v>-12415</v>
+      </c>
+      <c r="F102">
+        <v>18</v>
       </c>
       <c r="H102">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pirambu </t>
+          <t xml:space="preserve">Ribeirópolis </t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C103">
-        <v>41833</v>
+        <v>7281</v>
       </c>
       <c r="E103">
-        <v>-41833</v>
+        <v>-7281</v>
       </c>
       <c r="F103">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H103">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pirambu </t>
+          <t xml:space="preserve">Rosário do Catete </t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3117,22 +3099,28 @@
         </is>
       </c>
       <c r="C104">
-        <v>643423</v>
+        <v>1670235</v>
+      </c>
+      <c r="D104">
+        <v>5302</v>
       </c>
       <c r="E104">
-        <v>-643423</v>
+        <v>-1664933</v>
       </c>
       <c r="F104">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="G104">
+        <v>14</v>
       </c>
       <c r="H104">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pirambu </t>
+          <t xml:space="preserve">Rosário do Catete </t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3141,22 +3129,28 @@
         </is>
       </c>
       <c r="C105">
-        <v>169910</v>
+        <v>734798</v>
+      </c>
+      <c r="D105">
+        <v>355</v>
       </c>
       <c r="E105">
-        <v>-169910</v>
+        <v>-734443</v>
       </c>
       <c r="F105">
+        <v>8</v>
+      </c>
+      <c r="G105">
+        <v>10</v>
+      </c>
+      <c r="H105">
         <v>16</v>
-      </c>
-      <c r="H105">
-        <v>12</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pirambu </t>
+          <t xml:space="preserve">Rosário do Catete </t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3165,22 +3159,22 @@
         </is>
       </c>
       <c r="C106">
-        <v>120686</v>
+        <v>3621436</v>
       </c>
       <c r="E106">
-        <v>-120686</v>
+        <v>-3621436</v>
       </c>
       <c r="F106">
+        <v>5</v>
+      </c>
+      <c r="H106">
         <v>16</v>
-      </c>
-      <c r="H106">
-        <v>14</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pirambu </t>
+          <t xml:space="preserve">Rosário do Catete </t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3189,115 +3183,133 @@
         </is>
       </c>
       <c r="C107">
-        <v>4944</v>
+        <v>8712843</v>
+      </c>
+      <c r="D107">
+        <v>9904</v>
       </c>
       <c r="E107">
-        <v>-4944</v>
+        <v>-8702939</v>
       </c>
       <c r="F107">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="G107">
+        <v>9</v>
       </c>
       <c r="H107">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poço Verde </t>
+          <t xml:space="preserve">Rosário do Catete </t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C108">
-        <v>435686</v>
+        <v>9183324</v>
+      </c>
+      <c r="D108">
+        <v>2897</v>
       </c>
       <c r="E108">
-        <v>-435686</v>
+        <v>-9180427</v>
       </c>
       <c r="F108">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="G108">
+        <v>10</v>
       </c>
       <c r="H108">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poço Verde </t>
+          <t xml:space="preserve">Rosário do Catete </t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="C109">
-        <v>93412</v>
+        <v>5801721</v>
       </c>
       <c r="E109">
-        <v>-93412</v>
+        <v>-5801721</v>
       </c>
       <c r="F109">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H109">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poço Verde </t>
+          <t xml:space="preserve">Simão Dias </t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C110">
-        <v>182887</v>
+        <v>1580431</v>
+      </c>
+      <c r="D110">
+        <v>277737</v>
       </c>
       <c r="E110">
-        <v>-182887</v>
+        <v>-1302694</v>
       </c>
       <c r="F110">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="G110">
+        <v>4</v>
       </c>
       <c r="H110">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poço Verde </t>
+          <t xml:space="preserve">Simão Dias </t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C111">
-        <v>606209</v>
+        <v>457684</v>
       </c>
       <c r="D111">
-        <v>223894</v>
+        <v>316957</v>
       </c>
       <c r="E111">
-        <v>-382315</v>
+        <v>-140727</v>
       </c>
       <c r="F111">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G111">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H111">
         <v>12</v>
@@ -3306,1171 +3318,445 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Propriá </t>
+          <t xml:space="preserve">Simão Dias </t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C112">
-        <v>45624</v>
+        <v>921624</v>
+      </c>
+      <c r="D112">
+        <v>141745</v>
       </c>
       <c r="E112">
-        <v>-45624</v>
+        <v>-779879</v>
       </c>
       <c r="F112">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="G112">
+        <v>6</v>
       </c>
       <c r="H112">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Propriá </t>
+          <t xml:space="preserve">Simão Dias </t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C113">
-        <v>23171</v>
+        <v>1321372</v>
+      </c>
+      <c r="D113">
+        <v>199161</v>
       </c>
       <c r="E113">
-        <v>-23171</v>
+        <v>-1122211</v>
       </c>
       <c r="F113">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="G113">
+        <v>7</v>
       </c>
       <c r="H113">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Propriá </t>
+          <t xml:space="preserve">Simão Dias </t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C114">
-        <v>58442</v>
+        <v>1686997</v>
+      </c>
+      <c r="D114">
+        <v>33310</v>
       </c>
       <c r="E114">
-        <v>-58442</v>
+        <v>-1653687</v>
       </c>
       <c r="F114">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="G114">
+        <v>8</v>
       </c>
       <c r="H114">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Propriá </t>
+          <t xml:space="preserve">Simão Dias </t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="C115">
-        <v>29844</v>
+        <v>1278221</v>
+      </c>
+      <c r="D115">
+        <v>108064</v>
       </c>
       <c r="E115">
-        <v>-29844</v>
+        <v>-1170157</v>
       </c>
       <c r="F115">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="G115">
+        <v>9</v>
       </c>
       <c r="H115">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Riachuelo </t>
+          <t xml:space="preserve">São Cristóvão </t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C116">
-        <v>61084</v>
-      </c>
-      <c r="D116">
-        <v>5152</v>
+        <v>5573</v>
       </c>
       <c r="E116">
-        <v>-55932</v>
+        <v>-5573</v>
       </c>
       <c r="F116">
         <v>19</v>
       </c>
-      <c r="G116">
-        <v>11</v>
-      </c>
       <c r="H116">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Riachuelo </t>
+          <t xml:space="preserve">São Cristóvão </t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C117">
-        <v>427030</v>
-      </c>
-      <c r="D117">
-        <v>146575</v>
+        <v>21842</v>
       </c>
       <c r="E117">
-        <v>-280455</v>
+        <v>-21842</v>
       </c>
       <c r="F117">
-        <v>14</v>
-      </c>
-      <c r="G117">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H117">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Riachuelo </t>
+          <t xml:space="preserve">São Cristóvão </t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C118">
-        <v>549821</v>
+        <v>50677</v>
       </c>
       <c r="D118">
-        <v>596817</v>
+        <v>760</v>
       </c>
       <c r="E118">
-        <v>46996</v>
+        <v>-49917</v>
       </c>
       <c r="F118">
         <v>14</v>
       </c>
       <c r="G118">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Riachuelo </t>
+          <t xml:space="preserve">São Cristóvão </t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C119">
-        <v>377962</v>
-      </c>
-      <c r="D119">
-        <v>233889</v>
+        <v>7955969</v>
       </c>
       <c r="E119">
-        <v>-144073</v>
+        <v>-7955969</v>
       </c>
       <c r="F119">
-        <v>14</v>
-      </c>
-      <c r="G119">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H119">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Riachuelo </t>
+          <t xml:space="preserve">São Cristóvão </t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="C120">
-        <v>18669</v>
-      </c>
-      <c r="D120">
-        <v>30841</v>
+        <v>70471</v>
       </c>
       <c r="E120">
-        <v>12172</v>
+        <v>-70471</v>
       </c>
       <c r="F120">
-        <v>21</v>
-      </c>
-      <c r="G120">
+        <v>14</v>
+      </c>
+      <c r="H120">
         <v>11</v>
-      </c>
-      <c r="H120">
-        <v>5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Riachuelo </t>
+          <t xml:space="preserve">São Domingos </t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
-        </is>
-      </c>
-      <c r="C121">
-        <v>31106</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D121">
+        <v>126465</v>
       </c>
       <c r="E121">
-        <v>-31106</v>
-      </c>
-      <c r="F121">
-        <v>20</v>
+        <v>126465</v>
+      </c>
+      <c r="G121">
+        <v>8</v>
       </c>
       <c r="H121">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ribeirópolis </t>
+          <t xml:space="preserve">Tobias Barreto </t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C122">
-        <v>973417</v>
+        <v>97205</v>
+      </c>
+      <c r="D122">
+        <v>101848</v>
       </c>
       <c r="E122">
-        <v>-973417</v>
+        <v>4643</v>
       </c>
       <c r="F122">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G122">
+        <v>9</v>
       </c>
       <c r="H122">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ribeirópolis </t>
+          <t xml:space="preserve">Tobias Barreto </t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C123">
-        <v>3836</v>
+        <v>333588</v>
       </c>
       <c r="D123">
-        <v>156658</v>
+        <v>20351</v>
       </c>
       <c r="E123">
-        <v>152822</v>
+        <v>-313237</v>
       </c>
       <c r="F123">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G123">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ribeirópolis </t>
+          <t xml:space="preserve">Tobias Barreto </t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C124">
-        <v>57260</v>
+        <v>294032</v>
+      </c>
+      <c r="D124">
+        <v>40429</v>
       </c>
       <c r="E124">
-        <v>-57260</v>
+        <v>-253603</v>
       </c>
       <c r="F124">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="G124">
+        <v>9</v>
       </c>
       <c r="H124">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ribeirópolis </t>
+          <t xml:space="preserve">Tobias Barreto </t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C125">
-        <v>106306</v>
+        <v>723308</v>
       </c>
       <c r="D125">
-        <v>142713</v>
+        <v>286</v>
       </c>
       <c r="E125">
-        <v>36407</v>
+        <v>-723022</v>
       </c>
       <c r="F125">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G125">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H125">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ribeirópolis </t>
+          <t xml:space="preserve">Tobias Barreto </t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C126">
-        <v>1755516</v>
+        <v>305057</v>
       </c>
       <c r="E126">
-        <v>-1755516</v>
+        <v>-305057</v>
       </c>
       <c r="F126">
         <v>14</v>
       </c>
       <c r="H126">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ribeirópolis </t>
+          <t xml:space="preserve">Tobias Barreto </t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>31/12/2024</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="C127">
-        <v>1749819</v>
+        <v>147530</v>
+      </c>
+      <c r="D127">
+        <v>33471</v>
       </c>
       <c r="E127">
-        <v>-1749819</v>
+        <v>-114059</v>
       </c>
       <c r="F127">
+        <v>13</v>
+      </c>
+      <c r="G127">
         <v>12</v>
       </c>
       <c r="H127">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosário do Catete </t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="C128">
-        <v>2681689</v>
-      </c>
-      <c r="D128">
-        <v>2196</v>
-      </c>
-      <c r="E128">
-        <v>-2679493</v>
-      </c>
-      <c r="F128">
-        <v>9</v>
-      </c>
-      <c r="G128">
         <v>12</v>
-      </c>
-      <c r="H128">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosário do Catete </t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="C129">
-        <v>7336486</v>
-      </c>
-      <c r="D129">
-        <v>10958</v>
-      </c>
-      <c r="E129">
-        <v>-7325528</v>
-      </c>
-      <c r="F129">
-        <v>6</v>
-      </c>
-      <c r="G129">
-        <v>14</v>
-      </c>
-      <c r="H129">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosário do Catete </t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="C130">
-        <v>5776035</v>
-      </c>
-      <c r="D130">
-        <v>1312</v>
-      </c>
-      <c r="E130">
-        <v>-5774723</v>
-      </c>
-      <c r="F130">
-        <v>7</v>
-      </c>
-      <c r="G130">
-        <v>12</v>
-      </c>
-      <c r="H130">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosário do Catete </t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="C131">
-        <v>34294718</v>
-      </c>
-      <c r="D131">
-        <v>11455</v>
-      </c>
-      <c r="E131">
-        <v>-34283263</v>
-      </c>
-      <c r="F131">
-        <v>3</v>
-      </c>
-      <c r="G131">
-        <v>14</v>
-      </c>
-      <c r="H131">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosário do Catete </t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="C132">
-        <v>23701938</v>
-      </c>
-      <c r="D132">
-        <v>23787</v>
-      </c>
-      <c r="E132">
-        <v>-23678151</v>
-      </c>
-      <c r="F132">
-        <v>3</v>
-      </c>
-      <c r="G132">
-        <v>12</v>
-      </c>
-      <c r="H132">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosário do Catete </t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>31/12/2024</t>
-        </is>
-      </c>
-      <c r="C133">
-        <v>36010589</v>
-      </c>
-      <c r="D133">
-        <v>3924</v>
-      </c>
-      <c r="E133">
-        <v>-36006665</v>
-      </c>
-      <c r="F133">
-        <v>3</v>
-      </c>
-      <c r="G133">
-        <v>12</v>
-      </c>
-      <c r="H133">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Simão Dias </t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="C134">
-        <v>2300285</v>
-      </c>
-      <c r="D134">
-        <v>1032488</v>
-      </c>
-      <c r="E134">
-        <v>-1267797</v>
-      </c>
-      <c r="F134">
-        <v>10</v>
-      </c>
-      <c r="G134">
-        <v>6</v>
-      </c>
-      <c r="H134">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Simão Dias </t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="C135">
-        <v>2448433</v>
-      </c>
-      <c r="D135">
-        <v>459021</v>
-      </c>
-      <c r="E135">
-        <v>-1989412</v>
-      </c>
-      <c r="F135">
-        <v>9</v>
-      </c>
-      <c r="G135">
-        <v>7</v>
-      </c>
-      <c r="H135">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Simão Dias </t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="C136">
-        <v>1913772</v>
-      </c>
-      <c r="D136">
-        <v>951375</v>
-      </c>
-      <c r="E136">
-        <v>-962397</v>
-      </c>
-      <c r="F136">
-        <v>9</v>
-      </c>
-      <c r="G136">
-        <v>6</v>
-      </c>
-      <c r="H136">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Simão Dias </t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="C137">
-        <v>3575980</v>
-      </c>
-      <c r="D137">
-        <v>1103635</v>
-      </c>
-      <c r="E137">
-        <v>-2472345</v>
-      </c>
-      <c r="F137">
-        <v>9</v>
-      </c>
-      <c r="G137">
-        <v>6</v>
-      </c>
-      <c r="H137">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Simão Dias </t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="C138">
-        <v>4722826</v>
-      </c>
-      <c r="D138">
-        <v>1156397</v>
-      </c>
-      <c r="E138">
-        <v>-3566429</v>
-      </c>
-      <c r="F138">
-        <v>8</v>
-      </c>
-      <c r="G138">
-        <v>9</v>
-      </c>
-      <c r="H138">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Simão Dias </t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>31/12/2024</t>
-        </is>
-      </c>
-      <c r="C139">
-        <v>4758884</v>
-      </c>
-      <c r="D139">
-        <v>300414</v>
-      </c>
-      <c r="E139">
-        <v>-4458470</v>
-      </c>
-      <c r="F139">
-        <v>11</v>
-      </c>
-      <c r="G139">
-        <v>8</v>
-      </c>
-      <c r="H139">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t xml:space="preserve">São Cristóvão </t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="C140">
-        <v>668731</v>
-      </c>
-      <c r="E140">
-        <v>-668731</v>
-      </c>
-      <c r="F140">
-        <v>16</v>
-      </c>
-      <c r="H140">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t xml:space="preserve">São Cristóvão </t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="C141">
-        <v>148832</v>
-      </c>
-      <c r="E141">
-        <v>-148832</v>
-      </c>
-      <c r="F141">
-        <v>17</v>
-      </c>
-      <c r="H141">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t xml:space="preserve">São Cristóvão </t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="C142">
-        <v>80890</v>
-      </c>
-      <c r="D142">
-        <v>27640</v>
-      </c>
-      <c r="E142">
-        <v>-53250</v>
-      </c>
-      <c r="F142">
-        <v>17</v>
-      </c>
-      <c r="G142">
-        <v>11</v>
-      </c>
-      <c r="H142">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t xml:space="preserve">São Cristóvão </t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="C143">
-        <v>70272</v>
-      </c>
-      <c r="E143">
-        <v>-70272</v>
-      </c>
-      <c r="F143">
-        <v>18</v>
-      </c>
-      <c r="H143">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t xml:space="preserve">São Cristóvão </t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="C144">
-        <v>219058</v>
-      </c>
-      <c r="D144">
-        <v>760</v>
-      </c>
-      <c r="E144">
-        <v>-218298</v>
-      </c>
-      <c r="F144">
-        <v>17</v>
-      </c>
-      <c r="G144">
-        <v>15</v>
-      </c>
-      <c r="H144">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t xml:space="preserve">São Cristóvão </t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>31/12/2024</t>
-        </is>
-      </c>
-      <c r="C145">
-        <v>8329747</v>
-      </c>
-      <c r="E145">
-        <v>-8329747</v>
-      </c>
-      <c r="F145">
-        <v>8</v>
-      </c>
-      <c r="H145">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t xml:space="preserve">São Domingos </t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="C146">
-        <v>18544</v>
-      </c>
-      <c r="D146">
-        <v>398051</v>
-      </c>
-      <c r="E146">
-        <v>379507</v>
-      </c>
-      <c r="F146">
-        <v>23</v>
-      </c>
-      <c r="G146">
-        <v>8</v>
-      </c>
-      <c r="H146">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t xml:space="preserve">São Domingos </t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="D147">
-        <v>628189</v>
-      </c>
-      <c r="E147">
-        <v>628189</v>
-      </c>
-      <c r="G147">
-        <v>4</v>
-      </c>
-      <c r="H147">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tobias Barreto </t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="C148">
-        <v>1009781</v>
-      </c>
-      <c r="D148">
-        <v>95810</v>
-      </c>
-      <c r="E148">
-        <v>-913971</v>
-      </c>
-      <c r="F148">
-        <v>12</v>
-      </c>
-      <c r="G148">
-        <v>10</v>
-      </c>
-      <c r="H148">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tobias Barreto </t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="C149">
-        <v>564961</v>
-      </c>
-      <c r="D149">
-        <v>198126</v>
-      </c>
-      <c r="E149">
-        <v>-366835</v>
-      </c>
-      <c r="F149">
-        <v>13</v>
-      </c>
-      <c r="G149">
-        <v>10</v>
-      </c>
-      <c r="H149">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tobias Barreto </t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="C150">
-        <v>1423510</v>
-      </c>
-      <c r="D150">
-        <v>62906</v>
-      </c>
-      <c r="E150">
-        <v>-1360604</v>
-      </c>
-      <c r="F150">
-        <v>11</v>
-      </c>
-      <c r="G150">
-        <v>10</v>
-      </c>
-      <c r="H150">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tobias Barreto </t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="C151">
-        <v>1411503</v>
-      </c>
-      <c r="D151">
-        <v>130226</v>
-      </c>
-      <c r="E151">
-        <v>-1281277</v>
-      </c>
-      <c r="F151">
-        <v>12</v>
-      </c>
-      <c r="G151">
-        <v>9</v>
-      </c>
-      <c r="H151">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tobias Barreto </t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="C152">
-        <v>2163552</v>
-      </c>
-      <c r="D152">
-        <v>286</v>
-      </c>
-      <c r="E152">
-        <v>-2163266</v>
-      </c>
-      <c r="F152">
-        <v>11</v>
-      </c>
-      <c r="G152">
-        <v>16</v>
-      </c>
-      <c r="H152">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tobias Barreto </t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>31/12/2024</t>
-        </is>
-      </c>
-      <c r="C153">
-        <v>993706</v>
-      </c>
-      <c r="E153">
-        <v>-993706</v>
-      </c>
-      <c r="F153">
-        <v>14</v>
-      </c>
-      <c r="H153">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
